--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2879803.968712439</v>
+        <v>2879194.046454262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167598.0259580135</v>
+        <v>167598.0259580134</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058538</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2.817899082923868</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>3.199249640013477</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>154.4607618902592</v>
+        <v>57.3647945879346</v>
       </c>
       <c r="D11" t="n">
-        <v>142.0274241513076</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>185.8624891488177</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>151.4173933538233</v>
       </c>
       <c r="I11" t="n">
-        <v>45.79480327717982</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.95097669974247</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>26.7812993676016</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>54.40690532250591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>125.1350481182324</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>142.1517283348472</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>164.0379788037865</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1491,28 +1491,28 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>162.2456611522822</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="T12" t="n">
-        <v>185.8624891488177</v>
+        <v>19.2558232682857</v>
       </c>
       <c r="U12" t="n">
-        <v>41.48381771359216</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="V12" t="n">
-        <v>44.90418542448259</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="W12" t="n">
         <v>70.95984808609194</v>
       </c>
       <c r="X12" t="n">
-        <v>21.56817894855095</v>
+        <v>38.04448079291488</v>
       </c>
       <c r="Y12" t="n">
         <v>27.63955064310596</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.962380088609398</v>
+        <v>7.962380088609402</v>
       </c>
       <c r="S13" t="n">
         <v>39.80073002985181</v>
@@ -1610,70 +1610,70 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>142.0274241513076</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>142.7506525590078</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>32.08539371976659</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>54.40690532250595</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>142.1517283348473</v>
+      </c>
+      <c r="X14" t="n">
+        <v>164.0379788037865</v>
+      </c>
+      <c r="Y14" t="n">
         <v>185.8624891488176</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>141.2871785030862</v>
-      </c>
-      <c r="I14" t="n">
-        <v>45.79480327717982</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>26.7812993676016</v>
-      </c>
-      <c r="U14" t="n">
-        <v>54.40690532250591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>125.1350481182324</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,16 +1683,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>37.2239424636986</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.6165506667984</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.16980677800106</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>40.34877948655974</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.2558232682857</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="U15" t="n">
-        <v>41.48381771359216</v>
+        <v>41.48381771359219</v>
       </c>
       <c r="V15" t="n">
-        <v>44.90418542448259</v>
+        <v>44.90418542448262</v>
       </c>
       <c r="W15" t="n">
-        <v>70.95984808609194</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="X15" t="n">
-        <v>21.56817894855095</v>
+        <v>21.56817894855098</v>
       </c>
       <c r="Y15" t="n">
-        <v>27.63955064310596</v>
+        <v>27.63955064310599</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.962380088609398</v>
+        <v>7.96238008860943</v>
       </c>
       <c r="S16" t="n">
-        <v>39.80073002985181</v>
+        <v>39.80073002985184</v>
       </c>
       <c r="T16" t="n">
-        <v>28.04315991436305</v>
+        <v>28.04315991436307</v>
       </c>
       <c r="U16" t="n">
-        <v>92.91215769409224</v>
+        <v>92.91215769409227</v>
       </c>
       <c r="V16" t="n">
-        <v>49.36427969353025</v>
+        <v>49.36427969353028</v>
       </c>
       <c r="W16" t="n">
-        <v>94.56597159841567</v>
+        <v>94.5659715984157</v>
       </c>
       <c r="X16" t="n">
-        <v>26.17471991732288</v>
+        <v>26.1747199173229</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.39653732324877</v>
+        <v>21.39653732324879</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>51.81399886487685</v>
       </c>
       <c r="D17" t="n">
-        <v>39.38066112592531</v>
+        <v>39.38066112592565</v>
       </c>
       <c r="E17" t="n">
         <v>73.08741354533419</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7519568304996</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>125.8065328648607</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>81.64006522102004</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.16980677800106</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1971,16 +1971,16 @@
         <v>135.1762917966844</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>37.643383396746</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>120.4604159560443</v>
       </c>
       <c r="H20" t="n">
-        <v>48.77063032844092</v>
+        <v>48.77063032844094</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>22.4882850928492</v>
+        <v>22.48828509285005</v>
       </c>
       <c r="W20" t="n">
         <v>39.50496530946492</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S21" t="n">
-        <v>13.64736011685184</v>
+        <v>55.2215627178332</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>185.8624891488176</v>
       </c>
       <c r="Y21" t="n">
-        <v>185.8624891488176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2330,7 +2330,7 @@
         <v>104.8077511237115</v>
       </c>
       <c r="G23" t="n">
-        <v>120.4604159560443</v>
+        <v>120.4604159560444</v>
       </c>
       <c r="H23" t="n">
         <v>48.77063032844092</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7519568304996</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>56.02969094968618</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>185.8624891488176</v>
       </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
-      </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>28.53138864559405</v>
       </c>
     </row>
     <row r="25">
@@ -2558,13 +2558,13 @@
         <v>135.9938801142437</v>
       </c>
       <c r="D26" t="n">
-        <v>123.5605423752922</v>
+        <v>123.5605423752921</v>
       </c>
       <c r="E26" t="n">
         <v>157.267294794701</v>
       </c>
       <c r="F26" t="n">
-        <v>188.9876323730784</v>
+        <v>188.9876323730783</v>
       </c>
       <c r="G26" t="n">
         <v>204.6402972054112</v>
@@ -2573,7 +2573,7 @@
         <v>132.9505115778078</v>
       </c>
       <c r="I26" t="n">
-        <v>27.32792150116435</v>
+        <v>27.32792150116433</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.61851194375108</v>
+        <v>13.61851194375106</v>
       </c>
       <c r="T26" t="n">
-        <v>8.314417591586137</v>
+        <v>8.314417591586109</v>
       </c>
       <c r="U26" t="n">
-        <v>35.94002354649045</v>
+        <v>35.94002354649041</v>
       </c>
       <c r="V26" t="n">
         <v>106.6681663422169</v>
       </c>
       <c r="W26" t="n">
-        <v>123.6848465588318</v>
+        <v>123.6848465588317</v>
       </c>
       <c r="X26" t="n">
         <v>145.571097027771</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.0739501515148</v>
+        <v>168.0739501515147</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.83785900251688</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7889414922702338</v>
+        <v>0.7889414922702057</v>
       </c>
       <c r="U27" t="n">
-        <v>219.6966649550271</v>
+        <v>23.01693593757667</v>
       </c>
       <c r="V27" t="n">
-        <v>26.43730364846712</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>52.49296631007647</v>
+        <v>52.49296631007644</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>3.101297172535453</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.172668867090465</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.33384825383634</v>
+        <v>21.33384825383631</v>
       </c>
       <c r="T28" t="n">
-        <v>9.576278138347575</v>
+        <v>9.576278138347547</v>
       </c>
       <c r="U28" t="n">
-        <v>74.44527591807677</v>
+        <v>74.44527591807675</v>
       </c>
       <c r="V28" t="n">
-        <v>30.89739791751478</v>
+        <v>30.89739791751475</v>
       </c>
       <c r="W28" t="n">
-        <v>76.0990898224002</v>
+        <v>76.09908982240017</v>
       </c>
       <c r="X28" t="n">
-        <v>7.707838141307406</v>
+        <v>7.707838141307377</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.929655547233295</v>
+        <v>2.929655547233267</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>132.9505115778078</v>
       </c>
       <c r="I29" t="n">
-        <v>27.32792150116438</v>
+        <v>27.32792150116439</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7889414922702622</v>
+        <v>189.6606928578404</v>
       </c>
       <c r="U30" t="n">
-        <v>219.696664955027</v>
+        <v>23.01693593757672</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -3029,25 +3029,25 @@
         <v>159.0479132440339</v>
       </c>
       <c r="C32" t="n">
-        <v>135.1661702473793</v>
+        <v>135.1661702473794</v>
       </c>
       <c r="D32" t="n">
-        <v>122.7328325084278</v>
+        <v>122.7328325084279</v>
       </c>
       <c r="E32" t="n">
         <v>156.4395849278367</v>
       </c>
       <c r="F32" t="n">
-        <v>188.159922506214</v>
+        <v>188.1599225062141</v>
       </c>
       <c r="G32" t="n">
-        <v>203.8125873385468</v>
+        <v>203.8125873385469</v>
       </c>
       <c r="H32" t="n">
-        <v>132.1228017109434</v>
+        <v>132.1228017109435</v>
       </c>
       <c r="I32" t="n">
-        <v>26.5002116343</v>
+        <v>26.50021163430006</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.79080207688673</v>
+        <v>12.79080207688679</v>
       </c>
       <c r="T32" t="n">
-        <v>7.486707724721782</v>
+        <v>7.486707724721839</v>
       </c>
       <c r="U32" t="n">
-        <v>35.11231367962608</v>
+        <v>35.11231367962614</v>
       </c>
       <c r="V32" t="n">
-        <v>105.8404564753525</v>
+        <v>105.8404564753526</v>
       </c>
       <c r="W32" t="n">
-        <v>122.8571366919674</v>
+        <v>122.8571366919675</v>
       </c>
       <c r="X32" t="n">
         <v>144.7433871609067</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.2462402846504</v>
+        <v>167.2462402846505</v>
       </c>
     </row>
     <row r="33">
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>56.96753066174887</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.8065328648607</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>66.33728959357308</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2285532045118</v>
+        <v>22.1892260707124</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>51.66525644321212</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.273587305671128</v>
+        <v>2.273587305671185</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.34495900022614</v>
+        <v>8.344959000226197</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>20.50613838697199</v>
+        <v>20.50613838697204</v>
       </c>
       <c r="T34" t="n">
-        <v>8.748568271483222</v>
+        <v>8.748568271483279</v>
       </c>
       <c r="U34" t="n">
-        <v>73.61756605121242</v>
+        <v>73.61756605121248</v>
       </c>
       <c r="V34" t="n">
-        <v>30.06968805065043</v>
+        <v>30.06968805065048</v>
       </c>
       <c r="W34" t="n">
-        <v>75.27137995553585</v>
+        <v>75.27137995553591</v>
       </c>
       <c r="X34" t="n">
-        <v>6.880128274443052</v>
+        <v>6.880128274443109</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.101945680368942</v>
+        <v>2.101945680368999</v>
       </c>
     </row>
     <row r="35">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S36" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2285532045118</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>200.105719218816</v>
       </c>
       <c r="W36" t="n">
-        <v>70.50824475380024</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>70.50824475380003</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2285532045118</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>170.3872002010172</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>132.5477016097338</v>
       </c>
       <c r="C41" t="n">
         <v>108.6659586130793</v>
       </c>
       <c r="D41" t="n">
-        <v>96.2326208741278</v>
+        <v>96.23262087412778</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>129.9393732935366</v>
       </c>
       <c r="F41" t="n">
         <v>161.659710871914</v>
       </c>
       <c r="G41" t="n">
-        <v>170.4053597772752</v>
+        <v>13.54087495064684</v>
       </c>
       <c r="H41" t="n">
-        <v>105.6225900766434</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.612102045326083</v>
+        <v>8.612102045326065</v>
       </c>
       <c r="V41" t="n">
-        <v>79.34024484105254</v>
+        <v>79.34024484105251</v>
       </c>
       <c r="W41" t="n">
-        <v>96.35692505766741</v>
+        <v>96.35692505766738</v>
       </c>
       <c r="X41" t="n">
         <v>118.2431755266066</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>215.0005587592053</v>
+        <v>12.79565406378797</v>
       </c>
       <c r="U42" t="n">
-        <v>120.701963781231</v>
+        <v>237.2285532045118</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.16504480891211</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.11735441691242</v>
+        <v>47.11735441691239</v>
       </c>
       <c r="V43" t="n">
-        <v>3.569476416350426</v>
+        <v>3.569476416350398</v>
       </c>
       <c r="W43" t="n">
-        <v>48.77116832123585</v>
+        <v>48.77116832123582</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,16 +3980,16 @@
         <v>108.6659586130793</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>96.2326208741278</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>129.9393732935367</v>
       </c>
       <c r="F44" t="n">
-        <v>161.659710871914</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>134.0902790416683</v>
+        <v>69.57799574591678</v>
       </c>
       <c r="H44" t="n">
         <v>105.6225900766434</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.612102045326065</v>
+        <v>8.612102045326093</v>
       </c>
       <c r="V44" t="n">
-        <v>79.34024484105251</v>
+        <v>79.34024484105254</v>
       </c>
       <c r="W44" t="n">
-        <v>96.35692505766738</v>
+        <v>96.35692505766741</v>
       </c>
       <c r="X44" t="n">
         <v>118.2431755266066</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>53.16980677800106</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>215.0005587592053</v>
       </c>
       <c r="U45" t="n">
-        <v>10.22686681863031</v>
+        <v>131.4696209079309</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.16504480891209</v>
+        <v>25.16504480891211</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.11735441691239</v>
+        <v>47.11735441691242</v>
       </c>
       <c r="V46" t="n">
-        <v>3.569476416350398</v>
+        <v>3.569476416350426</v>
       </c>
       <c r="W46" t="n">
-        <v>48.77116832123582</v>
+        <v>48.77116832123585</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2559399712010781</v>
+        <v>0.384556269860207</v>
       </c>
       <c r="L8" t="n">
         <v>0.384556269860207</v>
@@ -4863,10 +4863,10 @@
         <v>6.333867974168094</v>
       </c>
       <c r="D9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="E9" t="n">
-        <v>3.102302681225188</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="F9" t="n">
         <v>3.102302681225188</v>
@@ -4884,7 +4884,7 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K9" t="n">
-        <v>3.295227129213883</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L9" t="n">
         <v>3.295227129213883</v>
@@ -4902,16 +4902,16 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.79699856005391</v>
+      </c>
+      <c r="S9" t="n">
         <v>9.565433267111001</v>
       </c>
-      <c r="R9" t="n">
-        <v>6.333867974168094</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.333867974168094</v>
-      </c>
       <c r="T9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
         <v>6.333867974168094</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>701.2961423858322</v>
+        <v>225.760098062974</v>
       </c>
       <c r="C11" t="n">
-        <v>545.2751707795098</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="D11" t="n">
-        <v>401.8131261822294</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="E11" t="n">
-        <v>401.8131261822294</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="F11" t="n">
-        <v>214.0732381531206</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="G11" t="n">
-        <v>214.0732381531206</v>
+        <v>167.8158611054643</v>
       </c>
       <c r="H11" t="n">
-        <v>61.1263761795618</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="I11" t="n">
         <v>14.86899913190541</v>
       </c>
       <c r="J11" t="n">
-        <v>14.86899913190541</v>
+        <v>131.4878539688434</v>
       </c>
       <c r="K11" t="n">
-        <v>95.75044590487153</v>
+        <v>315.4917182261729</v>
       </c>
       <c r="L11" t="n">
-        <v>279.754310162201</v>
+        <v>360.0657325482179</v>
       </c>
       <c r="M11" t="n">
-        <v>358.2274492730762</v>
+        <v>527.5175945394433</v>
       </c>
       <c r="N11" t="n">
-        <v>431.127929798912</v>
+        <v>711.5214587967728</v>
       </c>
       <c r="O11" t="n">
-        <v>463.0564275974099</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="P11" t="n">
-        <v>639.9463772971297</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="Q11" t="n">
-        <v>743.4499565952707</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="R11" t="n">
-        <v>743.4499565952707</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="S11" t="n">
-        <v>728.3479599288642</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="T11" t="n">
-        <v>701.2961423858322</v>
+        <v>716.3981390522385</v>
       </c>
       <c r="U11" t="n">
-        <v>701.2961423858322</v>
+        <v>661.4416690295053</v>
       </c>
       <c r="V11" t="n">
-        <v>701.2961423858322</v>
+        <v>535.0426305262403</v>
       </c>
       <c r="W11" t="n">
-        <v>701.2961423858322</v>
+        <v>391.4550261476067</v>
       </c>
       <c r="X11" t="n">
-        <v>701.2961423858322</v>
+        <v>225.760098062974</v>
       </c>
       <c r="Y11" t="n">
-        <v>701.2961423858322</v>
+        <v>225.760098062974</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="C12" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="D12" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="E12" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="F12" t="n">
         <v>14.86899913190541</v>
@@ -5121,49 +5121,49 @@
         <v>14.86899913190541</v>
       </c>
       <c r="K12" t="n">
-        <v>51.65695335259021</v>
+        <v>51.65695335259019</v>
       </c>
       <c r="L12" t="n">
-        <v>167.4094400524352</v>
+        <v>167.4094400524351</v>
       </c>
       <c r="M12" t="n">
-        <v>347.2417965565289</v>
+        <v>347.2417965565288</v>
       </c>
       <c r="N12" t="n">
-        <v>531.2456608138584</v>
+        <v>531.2456608138583</v>
       </c>
       <c r="O12" t="n">
-        <v>661.2147810621137</v>
+        <v>661.2147810621136</v>
       </c>
       <c r="P12" t="n">
-        <v>743.4499565952707</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="Q12" t="n">
-        <v>735.5631104822608</v>
+        <v>735.5631104822605</v>
       </c>
       <c r="R12" t="n">
-        <v>735.5631104822608</v>
+        <v>735.5631104822605</v>
       </c>
       <c r="S12" t="n">
-        <v>571.6786042678343</v>
+        <v>547.8232224531517</v>
       </c>
       <c r="T12" t="n">
-        <v>383.9387162387255</v>
+        <v>528.3728959195298</v>
       </c>
       <c r="U12" t="n">
-        <v>342.0358700633799</v>
+        <v>340.633007890421</v>
       </c>
       <c r="V12" t="n">
-        <v>296.678107008347</v>
+        <v>152.8931198613123</v>
       </c>
       <c r="W12" t="n">
-        <v>225.0014927799713</v>
+        <v>81.21650563293657</v>
       </c>
       <c r="X12" t="n">
-        <v>203.2154534380007</v>
+        <v>42.78773715524477</v>
       </c>
       <c r="Y12" t="n">
-        <v>175.2967154146613</v>
+        <v>14.86899913190541</v>
       </c>
     </row>
     <row r="13">
@@ -5197,25 +5197,25 @@
         <v>14.86899913190541</v>
       </c>
       <c r="J13" t="n">
-        <v>75.51038277542361</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="K13" t="n">
-        <v>202.2290109533361</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="L13" t="n">
-        <v>202.2290109533361</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="M13" t="n">
-        <v>202.2290109533361</v>
+        <v>20.41995245936968</v>
       </c>
       <c r="N13" t="n">
-        <v>378.7275206060813</v>
+        <v>20.41995245936968</v>
       </c>
       <c r="O13" t="n">
-        <v>378.7275206060813</v>
+        <v>176.2406090419298</v>
       </c>
       <c r="P13" t="n">
-        <v>378.7275206060813</v>
+        <v>311.3960353724473</v>
       </c>
       <c r="Q13" t="n">
         <v>378.7275206060813</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>535.0426305262404</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="C14" t="n">
-        <v>535.0426305262404</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="D14" t="n">
-        <v>391.5805859289597</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="E14" t="n">
-        <v>391.5805859289597</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="F14" t="n">
-        <v>203.840697899851</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="G14" t="n">
-        <v>203.840697899851</v>
+        <v>159.0615774743375</v>
       </c>
       <c r="H14" t="n">
-        <v>61.1263761795618</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="I14" t="n">
         <v>14.86899913190541</v>
@@ -5279,22 +5279,22 @@
         <v>14.86899913190541</v>
       </c>
       <c r="K14" t="n">
+        <v>14.86899913190541</v>
+      </c>
+      <c r="L14" t="n">
         <v>198.8728633892349</v>
       </c>
-      <c r="L14" t="n">
-        <v>382.8767276465643</v>
-      </c>
       <c r="M14" t="n">
-        <v>461.3498667574396</v>
+        <v>277.3460025001101</v>
       </c>
       <c r="N14" t="n">
-        <v>534.2503472832753</v>
+        <v>382.5561426382212</v>
       </c>
       <c r="O14" t="n">
-        <v>566.1788450817731</v>
+        <v>566.5600068955507</v>
       </c>
       <c r="P14" t="n">
-        <v>639.9463772971296</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="Q14" t="n">
         <v>743.4499565952706</v>
@@ -5303,25 +5303,25 @@
         <v>743.4499565952706</v>
       </c>
       <c r="S14" t="n">
-        <v>743.4499565952706</v>
+        <v>711.0404679894457</v>
       </c>
       <c r="T14" t="n">
-        <v>716.3981390522387</v>
+        <v>711.0404679894457</v>
       </c>
       <c r="U14" t="n">
-        <v>661.4416690295054</v>
+        <v>656.0839979667127</v>
       </c>
       <c r="V14" t="n">
-        <v>535.0426305262404</v>
+        <v>656.0839979667127</v>
       </c>
       <c r="W14" t="n">
-        <v>535.0426305262404</v>
+        <v>512.4963935880791</v>
       </c>
       <c r="X14" t="n">
-        <v>535.0426305262404</v>
+        <v>346.8014655034463</v>
       </c>
       <c r="Y14" t="n">
-        <v>535.0426305262404</v>
+        <v>159.0615774743375</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>338.0595774363277</v>
+        <v>52.46894101442925</v>
       </c>
       <c r="C15" t="n">
-        <v>338.0595774363277</v>
+        <v>52.46894101442925</v>
       </c>
       <c r="D15" t="n">
-        <v>177.2794611973594</v>
+        <v>52.46894101442925</v>
       </c>
       <c r="E15" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="F15" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="G15" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="H15" t="n">
-        <v>177.2794611973594</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="I15" t="n">
-        <v>68.57587466523981</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="J15" t="n">
         <v>14.86899913190541</v>
       </c>
       <c r="K15" t="n">
-        <v>51.65695335259014</v>
+        <v>51.65695335259019</v>
       </c>
       <c r="L15" t="n">
         <v>167.4094400524351</v>
@@ -5379,28 +5379,28 @@
         <v>743.4499565952706</v>
       </c>
       <c r="R15" t="n">
-        <v>606.9082477097307</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="S15" t="n">
-        <v>566.1519047940138</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="T15" t="n">
-        <v>546.7015782603919</v>
+        <v>555.7100685661618</v>
       </c>
       <c r="U15" t="n">
-        <v>504.7987320850463</v>
+        <v>513.8072223908162</v>
       </c>
       <c r="V15" t="n">
-        <v>459.4409690300134</v>
+        <v>468.4494593357832</v>
       </c>
       <c r="W15" t="n">
-        <v>387.7643548016377</v>
+        <v>280.7095713066744</v>
       </c>
       <c r="X15" t="n">
-        <v>365.978315459667</v>
+        <v>258.9235319647037</v>
       </c>
       <c r="Y15" t="n">
-        <v>338.0595774363277</v>
+        <v>231.0047939413643</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>14.86899913190541</v>
       </c>
       <c r="D16" t="n">
-        <v>14.86899913190541</v>
+        <v>64.92546351971224</v>
       </c>
       <c r="E16" t="n">
-        <v>14.86899913190541</v>
+        <v>118.4533718556199</v>
       </c>
       <c r="F16" t="n">
-        <v>14.86899913190541</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="G16" t="n">
-        <v>14.86899913190541</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="H16" t="n">
-        <v>14.86899913190541</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="I16" t="n">
-        <v>14.86899913190541</v>
+        <v>174.7030465953682</v>
       </c>
       <c r="J16" t="n">
-        <v>14.86899913190541</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="K16" t="n">
-        <v>14.86899913190541</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="L16" t="n">
-        <v>14.86899913190541</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="M16" t="n">
-        <v>46.40835437077592</v>
+        <v>249.0216885993322</v>
       </c>
       <c r="N16" t="n">
-        <v>222.9068640235211</v>
+        <v>378.7275206060815</v>
       </c>
       <c r="O16" t="n">
-        <v>378.7275206060813</v>
+        <v>378.7275206060815</v>
       </c>
       <c r="P16" t="n">
-        <v>378.7275206060813</v>
+        <v>378.7275206060815</v>
       </c>
       <c r="Q16" t="n">
-        <v>378.7275206060813</v>
+        <v>378.7275206060815</v>
       </c>
       <c r="R16" t="n">
-        <v>370.6847124357687</v>
+        <v>370.6847124357689</v>
       </c>
       <c r="S16" t="n">
-        <v>330.4819548298578</v>
+        <v>330.481954829858</v>
       </c>
       <c r="T16" t="n">
-        <v>302.1555306739356</v>
+        <v>302.1555306739357</v>
       </c>
       <c r="U16" t="n">
-        <v>208.3048663364686</v>
+        <v>208.3048663364687</v>
       </c>
       <c r="V16" t="n">
-        <v>158.4419575551249</v>
+        <v>158.441957555125</v>
       </c>
       <c r="W16" t="n">
-        <v>62.92077412238181</v>
+        <v>62.92077412238187</v>
       </c>
       <c r="X16" t="n">
-        <v>36.48166309478295</v>
+        <v>36.48166309478298</v>
       </c>
       <c r="Y16" t="n">
         <v>14.86899913190541</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.6173536211303</v>
+        <v>457.6173536211307</v>
       </c>
       <c r="C17" t="n">
-        <v>405.2799810303457</v>
+        <v>405.2799810303461</v>
       </c>
       <c r="D17" t="n">
-        <v>365.5015354486029</v>
+        <v>365.5015354486032</v>
       </c>
       <c r="E17" t="n">
-        <v>291.6758652007906</v>
+        <v>291.675865200791</v>
       </c>
       <c r="F17" t="n">
-        <v>185.8094499243143</v>
+        <v>185.8094499243147</v>
       </c>
       <c r="G17" t="n">
         <v>64.13226208992657</v>
@@ -5510,31 +5510,31 @@
         <v>14.86899913190541</v>
       </c>
       <c r="I17" t="n">
-        <v>71.15243928262588</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="J17" t="n">
-        <v>71.15243928262588</v>
+        <v>198.8728633892349</v>
       </c>
       <c r="K17" t="n">
-        <v>71.15243928262588</v>
+        <v>382.8767276465643</v>
       </c>
       <c r="L17" t="n">
-        <v>115.7264536046709</v>
+        <v>490.2920835475022</v>
       </c>
       <c r="M17" t="n">
-        <v>194.1995927155461</v>
+        <v>568.7652226583774</v>
       </c>
       <c r="N17" t="n">
-        <v>267.1000732413819</v>
+        <v>641.6657031842132</v>
       </c>
       <c r="O17" t="n">
-        <v>387.9700413302529</v>
+        <v>673.594200982711</v>
       </c>
       <c r="P17" t="n">
-        <v>387.9700413302529</v>
+        <v>673.594200982711</v>
       </c>
       <c r="Q17" t="n">
-        <v>571.9739055875824</v>
+        <v>673.594200982711</v>
       </c>
       <c r="R17" t="n">
         <v>673.594200982711</v>
@@ -5549,16 +5549,16 @@
         <v>743.4499565952706</v>
       </c>
       <c r="V17" t="n">
-        <v>720.7345171075432</v>
+        <v>720.7345171075433</v>
       </c>
       <c r="W17" t="n">
-        <v>680.8305117444473</v>
+        <v>680.8305117444474</v>
       </c>
       <c r="X17" t="n">
-        <v>618.8191826753522</v>
+        <v>618.8191826753523</v>
       </c>
       <c r="Y17" t="n">
-        <v>534.0776989358085</v>
+        <v>534.0776989358089</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>428.3723947827958</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="C18" t="n">
-        <v>428.3723947827958</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="D18" t="n">
-        <v>428.3723947827958</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="E18" t="n">
-        <v>428.3723947827958</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="F18" t="n">
-        <v>428.3723947827958</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="G18" t="n">
-        <v>278.1178929338063</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="H18" t="n">
-        <v>151.0405870097045</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="I18" t="n">
-        <v>68.57587466523981</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="J18" t="n">
         <v>14.86899913190541</v>
       </c>
       <c r="K18" t="n">
-        <v>51.65695335259021</v>
+        <v>51.65695335259022</v>
       </c>
       <c r="L18" t="n">
         <v>167.4094400524352</v>
@@ -5607,37 +5607,37 @@
         <v>531.2456608138584</v>
       </c>
       <c r="O18" t="n">
-        <v>661.2147810621137</v>
+        <v>661.2147810621136</v>
       </c>
       <c r="P18" t="n">
-        <v>743.4499565952707</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="Q18" t="n">
-        <v>743.4499565952707</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="R18" t="n">
-        <v>606.9082477097309</v>
+        <v>606.9082477097307</v>
       </c>
       <c r="S18" t="n">
-        <v>606.9082477097309</v>
+        <v>568.884628117058</v>
       </c>
       <c r="T18" t="n">
-        <v>606.9082477097309</v>
+        <v>381.1447400879492</v>
       </c>
       <c r="U18" t="n">
-        <v>606.9082477097309</v>
+        <v>381.1447400879492</v>
       </c>
       <c r="V18" t="n">
-        <v>606.9082477097309</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="W18" t="n">
-        <v>606.9082477097309</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="X18" t="n">
-        <v>606.9082477097309</v>
+        <v>193.4048520588405</v>
       </c>
       <c r="Y18" t="n">
-        <v>606.9082477097309</v>
+        <v>193.4048520588405</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>457.6173536211314</v>
+        <v>457.6173536211306</v>
       </c>
       <c r="C20" t="n">
-        <v>405.2799810303467</v>
+        <v>405.2799810303459</v>
       </c>
       <c r="D20" t="n">
-        <v>365.501535448604</v>
+        <v>365.5015354486031</v>
       </c>
       <c r="E20" t="n">
-        <v>291.6758652007917</v>
+        <v>291.6758652007907</v>
       </c>
       <c r="F20" t="n">
-        <v>185.8094499243154</v>
+        <v>185.8094499243143</v>
       </c>
       <c r="G20" t="n">
-        <v>64.13226208992654</v>
+        <v>64.13226208992657</v>
       </c>
       <c r="H20" t="n">
         <v>14.86899913190541</v>
@@ -5750,52 +5750,52 @@
         <v>14.86899913190541</v>
       </c>
       <c r="J20" t="n">
-        <v>198.8728633892349</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="K20" t="n">
         <v>198.8728633892349</v>
       </c>
       <c r="L20" t="n">
-        <v>243.4468777112799</v>
+        <v>382.8767276465643</v>
       </c>
       <c r="M20" t="n">
-        <v>321.920016822155</v>
+        <v>461.3498667574395</v>
       </c>
       <c r="N20" t="n">
-        <v>394.8204973479909</v>
+        <v>534.2503472832753</v>
       </c>
       <c r="O20" t="n">
-        <v>426.7489951464887</v>
+        <v>566.1788450817731</v>
       </c>
       <c r="P20" t="n">
-        <v>426.7489951464887</v>
+        <v>566.1788450817731</v>
       </c>
       <c r="Q20" t="n">
-        <v>449.1096374405319</v>
+        <v>566.1788450817731</v>
       </c>
       <c r="R20" t="n">
-        <v>550.7299328356604</v>
+        <v>667.7991404769017</v>
       </c>
       <c r="S20" t="n">
-        <v>620.58568844822</v>
+        <v>737.6548960894613</v>
       </c>
       <c r="T20" t="n">
-        <v>695.692497469423</v>
+        <v>743.4499565952706</v>
       </c>
       <c r="U20" t="n">
         <v>743.4499565952706</v>
       </c>
       <c r="V20" t="n">
-        <v>720.7345171075439</v>
+        <v>720.7345171075431</v>
       </c>
       <c r="W20" t="n">
-        <v>680.8305117444481</v>
+        <v>680.8305117444472</v>
       </c>
       <c r="X20" t="n">
-        <v>618.819182675353</v>
+        <v>618.8191826753522</v>
       </c>
       <c r="Y20" t="n">
-        <v>534.0776989358096</v>
+        <v>534.0776989358087</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>14.86899913190541</v>
       </c>
       <c r="K21" t="n">
-        <v>51.65695335259021</v>
+        <v>51.65695335259019</v>
       </c>
       <c r="L21" t="n">
-        <v>167.4094400524352</v>
+        <v>167.4094400524351</v>
       </c>
       <c r="M21" t="n">
-        <v>347.2417965565289</v>
+        <v>347.2417965565288</v>
       </c>
       <c r="N21" t="n">
-        <v>531.2456608138584</v>
+        <v>531.2456608138583</v>
       </c>
       <c r="O21" t="n">
-        <v>661.2147810621137</v>
+        <v>661.2147810621136</v>
       </c>
       <c r="P21" t="n">
         <v>743.4499565952706</v>
@@ -5853,28 +5853,28 @@
         <v>743.4499565952706</v>
       </c>
       <c r="R21" t="n">
-        <v>743.4499565952706</v>
+        <v>606.9082477097307</v>
       </c>
       <c r="S21" t="n">
-        <v>729.6647443560263</v>
+        <v>551.1288914290911</v>
       </c>
       <c r="T21" t="n">
-        <v>729.6647443560263</v>
+        <v>551.1288914290911</v>
       </c>
       <c r="U21" t="n">
-        <v>729.6647443560263</v>
+        <v>551.1288914290911</v>
       </c>
       <c r="V21" t="n">
-        <v>729.6647443560263</v>
+        <v>363.3890033999824</v>
       </c>
       <c r="W21" t="n">
-        <v>729.6647443560263</v>
+        <v>363.3890033999824</v>
       </c>
       <c r="X21" t="n">
-        <v>541.9248563269175</v>
+        <v>175.6491153708737</v>
       </c>
       <c r="Y21" t="n">
-        <v>354.1849682978087</v>
+        <v>175.6491153708737</v>
       </c>
     </row>
     <row r="22">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>457.6173536211307</v>
+        <v>457.6173536211305</v>
       </c>
       <c r="C23" t="n">
-        <v>405.2799810303461</v>
+        <v>405.2799810303458</v>
       </c>
       <c r="D23" t="n">
-        <v>365.5015354486034</v>
+        <v>365.5015354486031</v>
       </c>
       <c r="E23" t="n">
-        <v>291.6758652007911</v>
+        <v>291.6758652007908</v>
       </c>
       <c r="F23" t="n">
-        <v>185.8094499243148</v>
+        <v>185.8094499243145</v>
       </c>
       <c r="G23" t="n">
         <v>64.13226208992654</v>
@@ -5984,55 +5984,55 @@
         <v>14.86899913190541</v>
       </c>
       <c r="I23" t="n">
-        <v>71.15243928262588</v>
+        <v>71.15243928262586</v>
       </c>
       <c r="J23" t="n">
-        <v>138.8499368210771</v>
+        <v>71.15243928262586</v>
       </c>
       <c r="K23" t="n">
-        <v>322.8538010784066</v>
+        <v>71.15243928262586</v>
       </c>
       <c r="L23" t="n">
-        <v>367.4278154004515</v>
+        <v>115.7264536046708</v>
       </c>
       <c r="M23" t="n">
-        <v>445.9009545113268</v>
+        <v>194.199592715546</v>
       </c>
       <c r="N23" t="n">
-        <v>518.8014350371626</v>
+        <v>267.1000732413818</v>
       </c>
       <c r="O23" t="n">
-        <v>550.7299328356604</v>
+        <v>375.4422280806116</v>
       </c>
       <c r="P23" t="n">
-        <v>550.7299328356604</v>
+        <v>559.446092337941</v>
       </c>
       <c r="Q23" t="n">
-        <v>550.7299328356604</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="R23" t="n">
-        <v>550.7299328356604</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="S23" t="n">
-        <v>620.58568844822</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="T23" t="n">
-        <v>695.692497469423</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="U23" t="n">
-        <v>743.4499565952706</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="V23" t="n">
-        <v>720.7345171075433</v>
+        <v>720.7345171075431</v>
       </c>
       <c r="W23" t="n">
-        <v>680.8305117444474</v>
+        <v>680.8305117444472</v>
       </c>
       <c r="X23" t="n">
-        <v>618.8191826753523</v>
+        <v>618.8191826753521</v>
       </c>
       <c r="Y23" t="n">
-        <v>534.0776989358089</v>
+        <v>534.0776989358087</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>555.7100685661618</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="C24" t="n">
-        <v>555.7100685661618</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="D24" t="n">
-        <v>555.7100685661618</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="E24" t="n">
-        <v>382.1468646875762</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="F24" t="n">
-        <v>221.7191484048203</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="G24" t="n">
-        <v>71.46464655583085</v>
+        <v>14.86899913190541</v>
       </c>
       <c r="H24" t="n">
         <v>14.86899913190541</v>
@@ -6069,7 +6069,7 @@
         <v>14.86899913190541</v>
       </c>
       <c r="K24" t="n">
-        <v>51.65695335259012</v>
+        <v>51.65695335259019</v>
       </c>
       <c r="L24" t="n">
         <v>167.4094400524351</v>
@@ -6078,40 +6078,40 @@
         <v>347.2417965565288</v>
       </c>
       <c r="N24" t="n">
-        <v>531.2456608138583</v>
+        <v>531.2456608138582</v>
       </c>
       <c r="O24" t="n">
-        <v>661.2147810621136</v>
+        <v>661.2147810621134</v>
       </c>
       <c r="P24" t="n">
-        <v>743.4499565952706</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="Q24" t="n">
-        <v>743.4499565952706</v>
+        <v>743.4499565952704</v>
       </c>
       <c r="R24" t="n">
-        <v>743.4499565952706</v>
+        <v>606.9082477097305</v>
       </c>
       <c r="S24" t="n">
-        <v>743.4499565952706</v>
+        <v>606.9082477097305</v>
       </c>
       <c r="T24" t="n">
-        <v>743.4499565952706</v>
+        <v>419.1683596806218</v>
       </c>
       <c r="U24" t="n">
-        <v>743.4499565952706</v>
+        <v>231.4284716515131</v>
       </c>
       <c r="V24" t="n">
-        <v>555.7100685661618</v>
+        <v>231.4284716515131</v>
       </c>
       <c r="W24" t="n">
-        <v>555.7100685661618</v>
+        <v>231.4284716515131</v>
       </c>
       <c r="X24" t="n">
-        <v>555.7100685661618</v>
+        <v>43.68858362240445</v>
       </c>
       <c r="Y24" t="n">
-        <v>555.7100685661618</v>
+        <v>14.86899913190541</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1016.247178589116</v>
+        <v>1016.247178589115</v>
       </c>
       <c r="C26" t="n">
-        <v>878.8796229181625</v>
+        <v>878.8796229181618</v>
       </c>
       <c r="D26" t="n">
-        <v>754.0709942562512</v>
+        <v>754.0709942562505</v>
       </c>
       <c r="E26" t="n">
-        <v>595.2151409282703</v>
+        <v>595.2151409282696</v>
       </c>
       <c r="F26" t="n">
-        <v>404.3185425716255</v>
+        <v>404.3185425716248</v>
       </c>
       <c r="G26" t="n">
-        <v>197.6111716570685</v>
+        <v>197.6111716570681</v>
       </c>
       <c r="H26" t="n">
-        <v>63.31772561887883</v>
+        <v>63.31772561887881</v>
       </c>
       <c r="I26" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="J26" t="n">
-        <v>170.6148323017849</v>
+        <v>170.614832301785</v>
       </c>
       <c r="K26" t="n">
-        <v>374.2939213226367</v>
+        <v>374.2939213226368</v>
       </c>
       <c r="L26" t="n">
-        <v>630.9374367389473</v>
+        <v>630.9374367389476</v>
       </c>
       <c r="M26" t="n">
-        <v>921.4800769440883</v>
+        <v>921.4800769440885</v>
       </c>
       <c r="N26" t="n">
         <v>1206.45005856419</v>
@@ -6248,25 +6248,25 @@
         <v>1767.406012371325</v>
       </c>
       <c r="R26" t="n">
-        <v>1785.68822532958</v>
+        <v>1785.688225329581</v>
       </c>
       <c r="S26" t="n">
         <v>1771.932152659124</v>
       </c>
       <c r="T26" t="n">
-        <v>1763.533751051461</v>
+        <v>1763.533751051462</v>
       </c>
       <c r="U26" t="n">
-        <v>1727.230696964098</v>
+        <v>1727.230696964097</v>
       </c>
       <c r="V26" t="n">
         <v>1619.485074396202</v>
       </c>
       <c r="W26" t="n">
-        <v>1494.550885952938</v>
+        <v>1494.550885952937</v>
       </c>
       <c r="X26" t="n">
-        <v>1347.509373803674</v>
+        <v>1347.509373803673</v>
       </c>
       <c r="Y26" t="n">
         <v>1177.737706983962</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.7137645065916</v>
+        <v>225.1260387736279</v>
       </c>
       <c r="C27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="D27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="E27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="F27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="G27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="H27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="J27" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="K27" t="n">
         <v>72.5017187272764</v>
@@ -6312,43 +6312,43 @@
         <v>188.2542054271213</v>
       </c>
       <c r="M27" t="n">
-        <v>368.0865619312151</v>
+        <v>368.086561931215</v>
       </c>
       <c r="N27" t="n">
-        <v>571.0984353709745</v>
+        <v>571.0984353709744</v>
       </c>
       <c r="O27" t="n">
-        <v>701.0675556192298</v>
+        <v>701.0675556192296</v>
       </c>
       <c r="P27" t="n">
-        <v>783.3027311523867</v>
+        <v>783.3027311523865</v>
       </c>
       <c r="Q27" t="n">
-        <v>783.3027311523867</v>
+        <v>775.4158850393765</v>
       </c>
       <c r="R27" t="n">
-        <v>783.3027311523867</v>
+        <v>751.3372395822887</v>
       </c>
       <c r="S27" t="n">
-        <v>783.3027311523867</v>
+        <v>557.673241495801</v>
       </c>
       <c r="T27" t="n">
-        <v>782.5058205541339</v>
+        <v>556.8763308975483</v>
       </c>
       <c r="U27" t="n">
-        <v>560.5899973672379</v>
+        <v>533.6269006575719</v>
       </c>
       <c r="V27" t="n">
-        <v>533.8856502475741</v>
+        <v>290.5471825612061</v>
       </c>
       <c r="W27" t="n">
-        <v>480.8624519545676</v>
+        <v>237.5239842681995</v>
       </c>
       <c r="X27" t="n">
-        <v>261.3544575712639</v>
+        <v>234.3913608615981</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.7137645065916</v>
+        <v>225.1260387736279</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="C28" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
       <c r="D28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="E28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="F28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="G28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="H28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="I28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="J28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="K28" t="n">
-        <v>35.7137645065916</v>
+        <v>104.0524418526538</v>
       </c>
       <c r="L28" t="n">
-        <v>35.7137645065916</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="M28" t="n">
-        <v>221.8620011256843</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="N28" t="n">
-        <v>221.8620011256843</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="O28" t="n">
-        <v>250.5561095923388</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="P28" t="n">
-        <v>250.5561095923388</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="Q28" t="n">
-        <v>250.5561095923388</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="R28" t="n">
-        <v>260.9555662628708</v>
+        <v>260.9555662628705</v>
       </c>
       <c r="S28" t="n">
-        <v>239.406224592329</v>
+        <v>239.4062245923288</v>
       </c>
       <c r="T28" t="n">
-        <v>229.7332163717759</v>
+        <v>229.7332163717758</v>
       </c>
       <c r="U28" t="n">
-        <v>154.5359679696782</v>
+        <v>154.535967969678</v>
       </c>
       <c r="V28" t="n">
-        <v>123.3264751237036</v>
+        <v>123.3264751237035</v>
       </c>
       <c r="W28" t="n">
-        <v>46.45870762632968</v>
+        <v>46.45870762632963</v>
       </c>
       <c r="X28" t="n">
-        <v>38.67301253409998</v>
+        <v>38.67301253409996</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.7137645065916</v>
+        <v>35.71376450659161</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1016.247178589116</v>
+        <v>1016.247178589115</v>
       </c>
       <c r="C29" t="n">
-        <v>878.8796229181623</v>
+        <v>878.8796229181621</v>
       </c>
       <c r="D29" t="n">
-        <v>754.0709942562511</v>
+        <v>754.0709942562509</v>
       </c>
       <c r="E29" t="n">
-        <v>595.2151409282702</v>
+        <v>595.21514092827</v>
       </c>
       <c r="F29" t="n">
-        <v>404.3185425716254</v>
+        <v>404.3185425716251</v>
       </c>
       <c r="G29" t="n">
-        <v>197.6111716570686</v>
+        <v>197.6111716570683</v>
       </c>
       <c r="H29" t="n">
         <v>63.31772561887887</v>
@@ -6464,16 +6464,16 @@
         <v>170.6148323017849</v>
       </c>
       <c r="K29" t="n">
-        <v>374.2939213226373</v>
+        <v>374.2939213226366</v>
       </c>
       <c r="L29" t="n">
-        <v>630.9374367389477</v>
+        <v>630.937436738947</v>
       </c>
       <c r="M29" t="n">
-        <v>921.4800769440886</v>
+        <v>921.480076944088</v>
       </c>
       <c r="N29" t="n">
-        <v>1206.45005856419</v>
+        <v>1206.450058564189</v>
       </c>
       <c r="O29" t="n">
         <v>1450.448057456954</v>
@@ -6500,7 +6500,7 @@
         <v>1619.485074396202</v>
       </c>
       <c r="W29" t="n">
-        <v>1494.550885952938</v>
+        <v>1494.550885952937</v>
       </c>
       <c r="X29" t="n">
         <v>1347.509373803674</v>
@@ -6549,28 +6549,28 @@
         <v>188.2542054271213</v>
       </c>
       <c r="M30" t="n">
-        <v>368.0865619312151</v>
+        <v>368.086561931215</v>
       </c>
       <c r="N30" t="n">
-        <v>571.0984353709745</v>
+        <v>571.0984353709744</v>
       </c>
       <c r="O30" t="n">
-        <v>701.0675556192298</v>
+        <v>701.0675556192296</v>
       </c>
       <c r="P30" t="n">
-        <v>783.3027311523867</v>
+        <v>783.3027311523865</v>
       </c>
       <c r="Q30" t="n">
-        <v>783.3027311523867</v>
+        <v>775.4158850393765</v>
       </c>
       <c r="R30" t="n">
-        <v>783.3027311523867</v>
+        <v>775.4158850393765</v>
       </c>
       <c r="S30" t="n">
-        <v>783.3027311523867</v>
+        <v>775.4158850393765</v>
       </c>
       <c r="T30" t="n">
-        <v>782.5058205541339</v>
+        <v>583.8394276072145</v>
       </c>
       <c r="U30" t="n">
         <v>560.589997367238</v>
@@ -6628,10 +6628,10 @@
         <v>35.71376450659161</v>
       </c>
       <c r="M31" t="n">
-        <v>35.71376450659161</v>
+        <v>86.85269672205555</v>
       </c>
       <c r="N31" t="n">
-        <v>86.85269672205553</v>
+        <v>86.85269672205555</v>
       </c>
       <c r="O31" t="n">
         <v>260.9555662628709</v>
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1010.138744609784</v>
+        <v>1010.138744609783</v>
       </c>
       <c r="C32" t="n">
-        <v>873.607259511421</v>
+        <v>873.6072595114199</v>
       </c>
       <c r="D32" t="n">
-        <v>749.6347014221</v>
+        <v>749.6347014220988</v>
       </c>
       <c r="E32" t="n">
-        <v>591.6149186667094</v>
+        <v>591.6149186667081</v>
       </c>
       <c r="F32" t="n">
-        <v>401.5543908826543</v>
+        <v>401.5543908826535</v>
       </c>
       <c r="G32" t="n">
-        <v>195.6830905406878</v>
+        <v>195.6830905406869</v>
       </c>
       <c r="H32" t="n">
-        <v>62.22571507508751</v>
+        <v>62.22571507508756</v>
       </c>
       <c r="I32" t="n">
         <v>35.45782453539054</v>
       </c>
       <c r="J32" t="n">
-        <v>171.1783250987796</v>
+        <v>171.1783250987795</v>
       </c>
       <c r="K32" t="n">
-        <v>375.6768468878271</v>
+        <v>355.7608933852136</v>
       </c>
       <c r="L32" t="n">
-        <v>633.1397950723335</v>
+        <v>613.22384156972</v>
       </c>
       <c r="M32" t="n">
-        <v>904.5859145430561</v>
+        <v>904.5859145430566</v>
       </c>
       <c r="N32" t="n">
-        <v>1190.375328931353</v>
+        <v>1190.375328931354</v>
       </c>
       <c r="O32" t="n">
         <v>1435.192760592313</v>
       </c>
       <c r="P32" t="n">
-        <v>1631.184356018483</v>
+        <v>1631.184356018484</v>
       </c>
       <c r="Q32" t="n">
-        <v>1753.789581043075</v>
+        <v>1753.789581043076</v>
       </c>
       <c r="R32" t="n">
         <v>1772.891226769527</v>
@@ -6734,16 +6734,16 @@
         <v>1716.941910121815</v>
       </c>
       <c r="V32" t="n">
-        <v>1610.03235812651</v>
+        <v>1610.032358126509</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.934240255836</v>
+        <v>1485.934240255835</v>
       </c>
       <c r="X32" t="n">
-        <v>1339.728798679162</v>
+        <v>1339.728798679161</v>
       </c>
       <c r="Y32" t="n">
-        <v>1170.793202432041</v>
+        <v>1170.793202432039</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>229.5424936853237</v>
+        <v>93.00078479978333</v>
       </c>
       <c r="C33" t="n">
-        <v>229.5424936853237</v>
+        <v>93.00078479978333</v>
       </c>
       <c r="D33" t="n">
-        <v>229.5424936853237</v>
+        <v>93.00078479978333</v>
       </c>
       <c r="E33" t="n">
-        <v>229.5424936853237</v>
+        <v>93.00078479978333</v>
       </c>
       <c r="F33" t="n">
-        <v>229.5424936853237</v>
+        <v>35.45782453539054</v>
       </c>
       <c r="G33" t="n">
-        <v>229.5424936853237</v>
+        <v>35.45782453539054</v>
       </c>
       <c r="H33" t="n">
-        <v>102.4651877612219</v>
+        <v>35.45782453539054</v>
       </c>
       <c r="I33" t="n">
         <v>35.45782453539054</v>
@@ -6780,7 +6780,7 @@
         <v>35.45782453539054</v>
       </c>
       <c r="K33" t="n">
-        <v>72.24577875607534</v>
+        <v>72.24577875607531</v>
       </c>
       <c r="L33" t="n">
         <v>187.9982654559203</v>
@@ -6789,40 +6789,40 @@
         <v>367.830621960014</v>
       </c>
       <c r="N33" t="n">
-        <v>570.8424953997734</v>
+        <v>570.8424953997733</v>
       </c>
       <c r="O33" t="n">
-        <v>700.8116156480287</v>
+        <v>700.8116156480285</v>
       </c>
       <c r="P33" t="n">
-        <v>783.0467911811857</v>
+        <v>783.0467911811854</v>
       </c>
       <c r="Q33" t="n">
-        <v>775.1599450681757</v>
+        <v>775.1599450681754</v>
       </c>
       <c r="R33" t="n">
-        <v>775.1599450681757</v>
+        <v>638.6182361826355</v>
       </c>
       <c r="S33" t="n">
-        <v>775.1599450681757</v>
+        <v>638.6182361826355</v>
       </c>
       <c r="T33" t="n">
-        <v>775.1599450681757</v>
+        <v>638.6182361826355</v>
       </c>
       <c r="U33" t="n">
-        <v>535.5351438514971</v>
+        <v>616.2048765152492</v>
       </c>
       <c r="V33" t="n">
-        <v>292.4554257551312</v>
+        <v>373.1251584188833</v>
       </c>
       <c r="W33" t="n">
-        <v>240.2682980347149</v>
+        <v>103.7265891491746</v>
       </c>
       <c r="X33" t="n">
-        <v>237.9717452007037</v>
+        <v>101.4300363151633</v>
       </c>
       <c r="Y33" t="n">
-        <v>229.5424936853237</v>
+        <v>93.00078479978333</v>
       </c>
     </row>
     <row r="34">
@@ -6850,55 +6850,55 @@
         <v>35.45782453539054</v>
       </c>
       <c r="H34" t="n">
-        <v>35.45782453539054</v>
+        <v>84.1263494717936</v>
       </c>
       <c r="I34" t="n">
-        <v>35.45782453539054</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="J34" t="n">
-        <v>35.45782453539054</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="K34" t="n">
-        <v>35.45782453539054</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="L34" t="n">
-        <v>35.45782453539054</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="M34" t="n">
-        <v>35.45782453539054</v>
+        <v>133.6273312862535</v>
       </c>
       <c r="N34" t="n">
-        <v>79.92482997452674</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="O34" t="n">
-        <v>254.8471322835379</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="P34" t="n">
-        <v>254.8471322835379</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="Q34" t="n">
-        <v>254.8471322835379</v>
+        <v>243.6282428448106</v>
       </c>
       <c r="R34" t="n">
-        <v>254.8471322835379</v>
+        <v>254.8471322835383</v>
       </c>
       <c r="S34" t="n">
-        <v>234.1338611855864</v>
+        <v>234.1338611855868</v>
       </c>
       <c r="T34" t="n">
-        <v>225.2969235376236</v>
+        <v>225.2969235376239</v>
       </c>
       <c r="U34" t="n">
-        <v>150.9357457081161</v>
+        <v>150.9357457081163</v>
       </c>
       <c r="V34" t="n">
-        <v>120.5623234347318</v>
+        <v>120.562323434732</v>
       </c>
       <c r="W34" t="n">
-        <v>44.53062650994811</v>
+        <v>44.53062650994822</v>
       </c>
       <c r="X34" t="n">
-        <v>37.58100199030866</v>
+        <v>37.58100199030871</v>
       </c>
       <c r="Y34" t="n">
         <v>35.45782453539054</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.3090539891426</v>
+        <v>623.309053989143</v>
       </c>
       <c r="C35" t="n">
-        <v>544.3523590441525</v>
+        <v>544.352359044153</v>
       </c>
       <c r="D35" t="n">
-        <v>477.9545911082046</v>
+        <v>477.954591108205</v>
       </c>
       <c r="E35" t="n">
-        <v>377.5095985061869</v>
+        <v>377.5095985061874</v>
       </c>
       <c r="F35" t="n">
         <v>245.0238608755058</v>
@@ -6932,40 +6932,40 @@
         <v>20.84476537468619</v>
       </c>
       <c r="I35" t="n">
-        <v>51.03860768605003</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J35" t="n">
-        <v>51.03860768605003</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K35" t="n">
-        <v>308.9925791977917</v>
+        <v>278.7987368864277</v>
       </c>
       <c r="L35" t="n">
-        <v>353.5665935198366</v>
+        <v>536.7527083981693</v>
       </c>
       <c r="M35" t="n">
-        <v>432.0397326307118</v>
+        <v>615.2258475090445</v>
       </c>
       <c r="N35" t="n">
-        <v>504.9402131565476</v>
+        <v>873.179819020786</v>
       </c>
       <c r="O35" t="n">
-        <v>536.8687109550455</v>
+        <v>966.7075711785374</v>
       </c>
       <c r="P35" t="n">
-        <v>673.2220640830845</v>
+        <v>966.7075711785374</v>
       </c>
       <c r="Q35" t="n">
-        <v>852.2563409369974</v>
+        <v>966.7075711785374</v>
       </c>
       <c r="R35" t="n">
-        <v>927.7870384927693</v>
+        <v>1042.238268734309</v>
       </c>
       <c r="S35" t="n">
-        <v>971.5531962659722</v>
+        <v>1042.238268734309</v>
       </c>
       <c r="T35" t="n">
-        <v>1020.570407447819</v>
+        <v>1042.238268734309</v>
       </c>
       <c r="U35" t="n">
         <v>1042.238268734309</v>
@@ -6974,13 +6974,13 @@
         <v>992.9035068923765</v>
       </c>
       <c r="W35" t="n">
-        <v>926.3801791750752</v>
+        <v>926.3801791750755</v>
       </c>
       <c r="X35" t="n">
-        <v>837.7495277517748</v>
+        <v>837.7495277517751</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.388721658026</v>
+        <v>726.3887216580264</v>
       </c>
     </row>
     <row r="36">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.84476537468619</v>
+        <v>210.2570396417225</v>
       </c>
       <c r="C36" t="n">
         <v>20.84476537468619</v>
@@ -7017,49 +7017,49 @@
         <v>20.84476537468619</v>
       </c>
       <c r="K36" t="n">
-        <v>57.63271959537099</v>
+        <v>57.63271959537097</v>
       </c>
       <c r="L36" t="n">
         <v>173.3852062952159</v>
       </c>
       <c r="M36" t="n">
-        <v>353.2175627993097</v>
+        <v>353.2175627993096</v>
       </c>
       <c r="N36" t="n">
-        <v>556.2294362390691</v>
+        <v>556.2294362390689</v>
       </c>
       <c r="O36" t="n">
-        <v>686.1985564873244</v>
+        <v>686.1985564873241</v>
       </c>
       <c r="P36" t="n">
-        <v>768.4337320204813</v>
+        <v>768.4337320204811</v>
       </c>
       <c r="Q36" t="n">
-        <v>768.4337320204813</v>
+        <v>768.4337320204811</v>
       </c>
       <c r="R36" t="n">
-        <v>768.4337320204813</v>
+        <v>631.8920231349413</v>
       </c>
       <c r="S36" t="n">
-        <v>574.7697339339936</v>
+        <v>631.8920231349413</v>
       </c>
       <c r="T36" t="n">
-        <v>574.7697339339936</v>
+        <v>631.8920231349413</v>
       </c>
       <c r="U36" t="n">
-        <v>335.144932717315</v>
+        <v>631.8920231349413</v>
       </c>
       <c r="V36" t="n">
-        <v>92.06521462094906</v>
+        <v>429.7650340250261</v>
       </c>
       <c r="W36" t="n">
-        <v>20.84476537468619</v>
+        <v>429.7650340250261</v>
       </c>
       <c r="X36" t="n">
-        <v>20.84476537468619</v>
+        <v>210.2570396417225</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.84476537468619</v>
+        <v>210.2570396417225</v>
       </c>
     </row>
     <row r="37">
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="C37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="D37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="E37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="F37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="G37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="H37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="I37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="J37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="K37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="L37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="M37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="N37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="O37" t="n">
         <v>37.63115305082073</v>
@@ -7129,16 +7129,16 @@
         <v>20.84476537468619</v>
       </c>
       <c r="V37" t="n">
-        <v>47.5048260338631</v>
+        <v>39.30167214609692</v>
       </c>
       <c r="W37" t="n">
-        <v>29.04791926245237</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="X37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
       <c r="Y37" t="n">
-        <v>37.63115305082073</v>
+        <v>20.84476537468619</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.3090539891429</v>
+        <v>623.3090539891434</v>
       </c>
       <c r="C38" t="n">
-        <v>544.3523590441528</v>
+        <v>544.3523590441534</v>
       </c>
       <c r="D38" t="n">
-        <v>477.9545911082048</v>
+        <v>477.9545911082054</v>
       </c>
       <c r="E38" t="n">
-        <v>377.5095985061871</v>
+        <v>377.5095985061877</v>
       </c>
       <c r="F38" t="n">
-        <v>245.0238608755058</v>
+        <v>245.0238608755061</v>
       </c>
       <c r="G38" t="n">
-        <v>96.72735068691264</v>
+        <v>96.72735068691266</v>
       </c>
       <c r="H38" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="I38" t="n">
-        <v>51.03860768605003</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="J38" t="n">
-        <v>51.03860768605003</v>
+        <v>212.9943177673961</v>
       </c>
       <c r="K38" t="n">
-        <v>51.03860768605003</v>
+        <v>470.9482892791378</v>
       </c>
       <c r="L38" t="n">
-        <v>95.612622008095</v>
+        <v>515.5223036011828</v>
       </c>
       <c r="M38" t="n">
-        <v>174.0857611189702</v>
+        <v>758.3750135560635</v>
       </c>
       <c r="N38" t="n">
-        <v>388.8729190290952</v>
+        <v>831.2754940818993</v>
       </c>
       <c r="O38" t="n">
-        <v>420.8014168275931</v>
+        <v>863.2039918803971</v>
       </c>
       <c r="P38" t="n">
-        <v>673.2220640830848</v>
+        <v>863.2039918803971</v>
       </c>
       <c r="Q38" t="n">
-        <v>852.2563409369976</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="R38" t="n">
-        <v>927.7870384927695</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="S38" t="n">
-        <v>971.5531962659725</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="T38" t="n">
-        <v>1020.570407447819</v>
+        <v>1042.23826873431</v>
       </c>
       <c r="U38" t="n">
         <v>1042.23826873431</v>
       </c>
       <c r="V38" t="n">
-        <v>992.9035068923768</v>
+        <v>992.9035068923772</v>
       </c>
       <c r="W38" t="n">
-        <v>926.3801791750755</v>
+        <v>926.380179175076</v>
       </c>
       <c r="X38" t="n">
-        <v>837.7495277517751</v>
+        <v>837.7495277517755</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.3887216580263</v>
+        <v>726.3887216580268</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>370.6847559244784</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="C39" t="n">
-        <v>181.2724816574421</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="D39" t="n">
-        <v>181.2724816574421</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="E39" t="n">
-        <v>181.2724816574421</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="F39" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="G39" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="H39" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="I39" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="J39" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="K39" t="n">
         <v>57.63271959537099</v>
@@ -7260,43 +7260,43 @@
         <v>173.3852062952159</v>
       </c>
       <c r="M39" t="n">
-        <v>353.2175627993097</v>
+        <v>353.2175627993096</v>
       </c>
       <c r="N39" t="n">
-        <v>556.2294362390691</v>
+        <v>556.2294362390689</v>
       </c>
       <c r="O39" t="n">
-        <v>686.1985564873244</v>
+        <v>686.1985564873241</v>
       </c>
       <c r="P39" t="n">
-        <v>768.4337320204813</v>
+        <v>768.4337320204811</v>
       </c>
       <c r="Q39" t="n">
-        <v>768.4337320204813</v>
+        <v>768.4337320204811</v>
       </c>
       <c r="R39" t="n">
-        <v>768.4337320204813</v>
+        <v>768.4337320204811</v>
       </c>
       <c r="S39" t="n">
-        <v>768.4337320204813</v>
+        <v>574.7697339339934</v>
       </c>
       <c r="T39" t="n">
-        <v>768.4337320204813</v>
+        <v>503.5492846877307</v>
       </c>
       <c r="U39" t="n">
-        <v>768.4337320204813</v>
+        <v>263.9244834710521</v>
       </c>
       <c r="V39" t="n">
-        <v>768.4337320204813</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="W39" t="n">
-        <v>768.4337320204813</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="X39" t="n">
-        <v>596.3254489891508</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="Y39" t="n">
-        <v>370.6847559244784</v>
+        <v>20.8447653746862</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="C40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="D40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="E40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="F40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="G40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="H40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="I40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="J40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="K40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="L40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="M40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="N40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="O40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="P40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="R40" t="n">
-        <v>20.84476537468619</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="S40" t="n">
-        <v>56.08805982223146</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="T40" t="n">
-        <v>56.08805982223146</v>
+        <v>56.08805982223147</v>
       </c>
       <c r="U40" t="n">
-        <v>39.30167214609692</v>
+        <v>39.30167214609693</v>
       </c>
       <c r="V40" t="n">
-        <v>39.30167214609692</v>
+        <v>39.30167214609693</v>
       </c>
       <c r="W40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="X40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.84476537468619</v>
+        <v>20.8447653746862</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>671.4617704962482</v>
+        <v>537.5752032136874</v>
       </c>
       <c r="C41" t="n">
-        <v>561.6981759375822</v>
+        <v>427.8116086550212</v>
       </c>
       <c r="D41" t="n">
-        <v>464.4935083879579</v>
+        <v>330.606941105397</v>
       </c>
       <c r="E41" t="n">
-        <v>464.4935083879579</v>
+        <v>199.3550488897034</v>
       </c>
       <c r="F41" t="n">
-        <v>301.2008711436004</v>
+        <v>36.06241164534605</v>
       </c>
       <c r="G41" t="n">
-        <v>129.0742451059486</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="H41" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I41" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J41" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="K41" t="n">
-        <v>253.1184914870507</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="L41" t="n">
-        <v>297.6925058090957</v>
+        <v>261.7668690349288</v>
       </c>
       <c r="M41" t="n">
-        <v>376.1656449199709</v>
+        <v>538.7782762630006</v>
       </c>
       <c r="N41" t="n">
-        <v>449.0661254458067</v>
+        <v>815.7896834910725</v>
       </c>
       <c r="O41" t="n">
-        <v>684.0105454007438</v>
+        <v>1086.842324669989</v>
       </c>
       <c r="P41" t="n">
-        <v>906.2373503448716</v>
+        <v>1086.842324669989</v>
       </c>
       <c r="Q41" t="n">
-        <v>1055.077784887421</v>
+        <v>1086.842324669989</v>
       </c>
       <c r="R41" t="n">
-        <v>1100.414640131829</v>
+        <v>1086.842324669989</v>
       </c>
       <c r="S41" t="n">
-        <v>1100.414640131829</v>
+        <v>1100.414640131828</v>
       </c>
       <c r="T41" t="n">
-        <v>1119.238009002311</v>
+        <v>1119.23800900231</v>
       </c>
       <c r="U41" t="n">
-        <v>1110.538916027235</v>
+        <v>1110.538916027233</v>
       </c>
       <c r="V41" t="n">
-        <v>1030.397254571626</v>
+        <v>1030.397254571625</v>
       </c>
       <c r="W41" t="n">
-        <v>933.0670272406492</v>
+        <v>933.0670272406477</v>
       </c>
       <c r="X41" t="n">
-        <v>813.6294762036728</v>
+        <v>813.6294762036714</v>
       </c>
       <c r="Y41" t="n">
-        <v>671.4617704962482</v>
+        <v>671.4617704962468</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>211.7970344470825</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="C42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="D42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="E42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="F42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="G42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="H42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J42" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="K42" t="n">
-        <v>59.17271440073102</v>
+        <v>59.172714400731</v>
       </c>
       <c r="L42" t="n">
-        <v>174.925201100576</v>
+        <v>174.9252011005759</v>
       </c>
       <c r="M42" t="n">
-        <v>354.7575576046697</v>
+        <v>354.7575576046696</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7694310444291</v>
+        <v>557.769431044429</v>
       </c>
       <c r="O42" t="n">
-        <v>687.7385512926844</v>
+        <v>687.7385512926842</v>
       </c>
       <c r="P42" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="Q42" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="R42" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="S42" t="n">
-        <v>576.3097287393537</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="T42" t="n">
-        <v>359.1374471643987</v>
+        <v>757.0488237311058</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2162716278018</v>
+        <v>517.4240225144272</v>
       </c>
       <c r="V42" t="n">
-        <v>237.2162716278018</v>
+        <v>517.4240225144272</v>
       </c>
       <c r="W42" t="n">
-        <v>211.7970344470825</v>
+        <v>248.0254532447186</v>
       </c>
       <c r="X42" t="n">
-        <v>211.7970344470825</v>
+        <v>248.0254532447186</v>
       </c>
       <c r="Y42" t="n">
-        <v>211.7970344470825</v>
+        <v>22.38476018004621</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="C43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="D43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="E43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="F43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="G43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="H43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I43" t="n">
-        <v>109.8224353965381</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J43" t="n">
-        <v>109.8224353965381</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="K43" t="n">
-        <v>109.8224353965381</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="L43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="M43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="N43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="O43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="P43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.8473855886308</v>
+        <v>61.88502718790251</v>
       </c>
       <c r="R43" t="n">
-        <v>122.8473855886308</v>
+        <v>99.33912614458725</v>
       </c>
       <c r="S43" t="n">
-        <v>122.8473855886308</v>
+        <v>105.273258659442</v>
       </c>
       <c r="T43" t="n">
-        <v>122.8473855886308</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="U43" t="n">
-        <v>75.25409829882024</v>
+        <v>75.25409829882017</v>
       </c>
       <c r="V43" t="n">
-        <v>71.64856656513294</v>
+        <v>71.6485665651329</v>
       </c>
       <c r="W43" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="X43" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.53904347443797</v>
+        <v>22.38476018004621</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>537.575203213688</v>
+        <v>537.5752032136871</v>
       </c>
       <c r="C44" t="n">
-        <v>427.8116086550222</v>
+        <v>427.8116086550212</v>
       </c>
       <c r="D44" t="n">
-        <v>427.8116086550222</v>
+        <v>330.606941105397</v>
       </c>
       <c r="E44" t="n">
-        <v>427.8116086550222</v>
+        <v>199.355048889703</v>
       </c>
       <c r="F44" t="n">
-        <v>264.5189714106643</v>
+        <v>199.355048889703</v>
       </c>
       <c r="G44" t="n">
         <v>129.0742451059487</v>
       </c>
       <c r="H44" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I44" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J44" t="n">
-        <v>184.3404702613923</v>
+        <v>146.3472867530597</v>
       </c>
       <c r="K44" t="n">
-        <v>415.0742015683968</v>
+        <v>377.0810180600642</v>
       </c>
       <c r="L44" t="n">
-        <v>487.1361125036957</v>
+        <v>654.092425288136</v>
       </c>
       <c r="M44" t="n">
-        <v>565.6092516145709</v>
+        <v>732.5655643990112</v>
       </c>
       <c r="N44" t="n">
-        <v>638.5097321404066</v>
+        <v>1009.576971627083</v>
       </c>
       <c r="O44" t="n">
-        <v>670.4382299389044</v>
+        <v>1041.505469425581</v>
       </c>
       <c r="P44" t="n">
-        <v>892.6650348830324</v>
+        <v>1041.505469425581</v>
       </c>
       <c r="Q44" t="n">
         <v>1041.505469425581</v>
@@ -7673,25 +7673,25 @@
         <v>1086.842324669989</v>
       </c>
       <c r="S44" t="n">
-        <v>1100.414640131829</v>
+        <v>1100.414640131828</v>
       </c>
       <c r="T44" t="n">
-        <v>1119.238009002311</v>
+        <v>1119.23800900231</v>
       </c>
       <c r="U44" t="n">
         <v>1110.538916027234</v>
       </c>
       <c r="V44" t="n">
-        <v>1030.397254571626</v>
+        <v>1030.397254571625</v>
       </c>
       <c r="W44" t="n">
-        <v>933.0670272406486</v>
+        <v>933.0670272406478</v>
       </c>
       <c r="X44" t="n">
-        <v>813.6294762036721</v>
+        <v>813.6294762036713</v>
       </c>
       <c r="Y44" t="n">
-        <v>671.4617704962475</v>
+        <v>671.4617704962466</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>265.5039099804169</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="C45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="D45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="E45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="F45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="G45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="H45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I45" t="n">
-        <v>76.09163571338063</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J45" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="K45" t="n">
-        <v>59.17271440073102</v>
+        <v>59.172714400731</v>
       </c>
       <c r="L45" t="n">
-        <v>174.925201100576</v>
+        <v>174.9252011005759</v>
       </c>
       <c r="M45" t="n">
-        <v>354.7575576046697</v>
+        <v>354.7575576046696</v>
       </c>
       <c r="N45" t="n">
-        <v>557.7694310444291</v>
+        <v>557.769431044429</v>
       </c>
       <c r="O45" t="n">
-        <v>687.7385512926844</v>
+        <v>687.7385512926842</v>
       </c>
       <c r="P45" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="Q45" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="R45" t="n">
-        <v>769.9737268258414</v>
+        <v>769.9737268258411</v>
       </c>
       <c r="S45" t="n">
-        <v>769.9737268258414</v>
+        <v>576.3097287393534</v>
       </c>
       <c r="T45" t="n">
-        <v>769.9737268258414</v>
+        <v>359.1374471643985</v>
       </c>
       <c r="U45" t="n">
-        <v>759.6435583221744</v>
+        <v>226.3398502877006</v>
       </c>
       <c r="V45" t="n">
-        <v>516.5638402258085</v>
+        <v>226.3398502877006</v>
       </c>
       <c r="W45" t="n">
-        <v>491.1446030450892</v>
+        <v>200.9206131069813</v>
       </c>
       <c r="X45" t="n">
-        <v>491.1446030450892</v>
+        <v>200.9206131069813</v>
       </c>
       <c r="Y45" t="n">
-        <v>265.5039099804169</v>
+        <v>200.9206131069813</v>
       </c>
     </row>
     <row r="46">
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.80864270630463</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="C46" t="n">
-        <v>41.80864270630463</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="D46" t="n">
-        <v>41.80864270630463</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="E46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="F46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="G46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="H46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="I46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="J46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="K46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="L46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="M46" t="n">
-        <v>116.9132530737759</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="N46" t="n">
-        <v>116.9132530737759</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="O46" t="n">
-        <v>116.9132530737759</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="P46" t="n">
-        <v>116.9132530737759</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="Q46" t="n">
-        <v>116.9132530737759</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="R46" t="n">
-        <v>116.9132530737759</v>
+        <v>122.8473855886307</v>
       </c>
       <c r="S46" t="n">
         <v>122.8473855886307</v>
@@ -7837,19 +7837,19 @@
         <v>122.8473855886307</v>
       </c>
       <c r="U46" t="n">
-        <v>75.25409829882018</v>
+        <v>75.25409829882022</v>
       </c>
       <c r="V46" t="n">
-        <v>71.64856656513291</v>
+        <v>71.64856656513292</v>
       </c>
       <c r="W46" t="n">
-        <v>22.38476018004623</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="X46" t="n">
-        <v>41.80864270630463</v>
+        <v>22.38476018004621</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.80864270630463</v>
+        <v>22.38476018004621</v>
       </c>
     </row>
   </sheetData>
@@ -8532,10 +8532,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>171.2365425770137</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.1063303597423</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
@@ -8781,7 +8781,7 @@
         <v>291.413849299441</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>291.413849299441</v>
+        <v>291.4138492994412</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9495,7 +9495,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786792</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,7 +9717,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.3734735841509</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9726,7 +9726,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>291.413849299441</v>
+        <v>291.4138492994409</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -23258,16 +23258,16 @@
         <v>178.3425048869137</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>97.09596730232457</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>142.0274241513076</v>
       </c>
       <c r="E11" t="n">
         <v>175.7341765707165</v>
       </c>
       <c r="F11" t="n">
-        <v>21.59202500027615</v>
+        <v>207.4545141490938</v>
       </c>
       <c r="G11" t="n">
         <v>223.1071789814267</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>45.79480327717983</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.13441702002408</v>
+        <v>32.08539371976656</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>54.40690532250591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>125.1350481182324</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>142.1517283348472</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>164.0379788037865</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>186.5408319275302</v>
@@ -23498,22 +23498,22 @@
         <v>154.4607618902592</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>142.0274241513077</v>
       </c>
       <c r="E14" t="n">
         <v>175.7341765707165</v>
       </c>
       <c r="F14" t="n">
-        <v>21.59202500027618</v>
+        <v>207.4545141490939</v>
       </c>
       <c r="G14" t="n">
         <v>223.1071789814267</v>
       </c>
       <c r="H14" t="n">
-        <v>10.13021485073699</v>
+        <v>8.666740794815519</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>45.79480327717986</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.08539371976656</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>26.78129936760163</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>125.1350481182324</v>
       </c>
       <c r="W14" t="n">
-        <v>142.1517283348472</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>164.0379788037865</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>186.5408319275302</v>
+        <v>0.6783427787126186</v>
       </c>
     </row>
     <row r="15">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.5477016097338</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>129.9393732935367</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.907015926971667</v>
+        <v>163.7715007536</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>105.6225900766434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>96.23262087412778</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>129.9393732935366</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>161.659710871914</v>
       </c>
       <c r="G44" t="n">
-        <v>43.22209666257848</v>
+        <v>107.7343799583301</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759189.342093206</v>
+        <v>759189.3420932062</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837835.395417637</v>
+        <v>837835.3954176366</v>
       </c>
       <c r="C2" t="n">
         <v>837835.3954176367</v>
       </c>
       <c r="D2" t="n">
-        <v>838319.2499331923</v>
+        <v>838319.2499331922</v>
       </c>
       <c r="E2" t="n">
-        <v>742120.2384602611</v>
+        <v>742120.2384602609</v>
       </c>
       <c r="F2" t="n">
-        <v>742120.2384602606</v>
+        <v>742120.238460261</v>
       </c>
       <c r="G2" t="n">
-        <v>839532.6214156095</v>
+        <v>839532.6214156096</v>
       </c>
       <c r="H2" t="n">
+        <v>839532.6214156096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>839532.6214156091</v>
+      </c>
+      <c r="J2" t="n">
+        <v>839532.621415609</v>
+      </c>
+      <c r="K2" t="n">
+        <v>839532.6214156094</v>
+      </c>
+      <c r="L2" t="n">
+        <v>839532.6214156089</v>
+      </c>
+      <c r="M2" t="n">
+        <v>839532.62141561</v>
+      </c>
+      <c r="N2" t="n">
         <v>839532.6214156097</v>
       </c>
-      <c r="I2" t="n">
-        <v>839532.6214156095</v>
-      </c>
-      <c r="J2" t="n">
-        <v>839532.6214156091</v>
-      </c>
-      <c r="K2" t="n">
-        <v>839532.6214156095</v>
-      </c>
-      <c r="L2" t="n">
-        <v>839532.6214156093</v>
-      </c>
-      <c r="M2" t="n">
-        <v>839532.6214156097</v>
-      </c>
-      <c r="N2" t="n">
-        <v>839532.6214156098</v>
-      </c>
       <c r="O2" t="n">
-        <v>819161.0402670268</v>
+        <v>819161.0402670263</v>
       </c>
       <c r="P2" t="n">
-        <v>819161.0402670269</v>
+        <v>819161.0402670264</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>289670.2140331916</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>82117.41042030585</v>
+        <v>82117.41042030587</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>82779.57831379736</v>
+        <v>82779.57831379733</v>
       </c>
       <c r="M3" t="n">
-        <v>45599.23380147138</v>
+        <v>45599.23380147143</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>391222.1450419844</v>
       </c>
       <c r="I4" t="n">
-        <v>391222.1450419844</v>
+        <v>391222.1450419845</v>
       </c>
       <c r="J4" t="n">
         <v>392077.3161236857</v>
@@ -26454,10 +26454,10 @@
         <v>391264.8425250226</v>
       </c>
       <c r="O4" t="n">
-        <v>379123.7892651575</v>
+        <v>379123.7892651574</v>
       </c>
       <c r="P4" t="n">
-        <v>379123.7892651575</v>
+        <v>379123.7892651574</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>29887.52290937394</v>
+        <v>29887.52290937393</v>
       </c>
       <c r="F5" t="n">
         <v>29887.52290937393</v>
@@ -26497,7 +26497,7 @@
         <v>47282.03687816329</v>
       </c>
       <c r="L5" t="n">
-        <v>47157.10724084789</v>
+        <v>47157.10724084788</v>
       </c>
       <c r="M5" t="n">
         <v>40843.03476178246</v>
@@ -26506,10 +26506,10 @@
         <v>40843.03476178247</v>
       </c>
       <c r="O5" t="n">
-        <v>39449.42462267018</v>
+        <v>39449.42462267017</v>
       </c>
       <c r="P5" t="n">
-        <v>39449.42462267018</v>
+        <v>39449.42462267017</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373973.6599099417</v>
+        <v>373969.1935257362</v>
       </c>
       <c r="C6" t="n">
-        <v>373973.6599099415</v>
+        <v>373969.1935257363</v>
       </c>
       <c r="D6" t="n">
-        <v>373326.7473789732</v>
+        <v>373323.5542961246</v>
       </c>
       <c r="E6" t="n">
-        <v>89753.02133471721</v>
+        <v>89496.6729585187</v>
       </c>
       <c r="F6" t="n">
-        <v>379423.2353679082</v>
+        <v>379166.8869917104</v>
       </c>
       <c r="G6" t="n">
         <v>327676.1323231644</v>
       </c>
       <c r="H6" t="n">
-        <v>409793.5427434705</v>
+        <v>409793.5427434703</v>
       </c>
       <c r="I6" t="n">
-        <v>409793.5427434703</v>
+        <v>409793.5427434698</v>
       </c>
       <c r="J6" t="n">
-        <v>242747.537624338</v>
+        <v>242747.5376243377</v>
       </c>
       <c r="K6" t="n">
-        <v>400173.2684137605</v>
+        <v>400173.2684137604</v>
       </c>
       <c r="L6" t="n">
-        <v>317533.4097046568</v>
+        <v>317533.4097046565</v>
       </c>
       <c r="M6" t="n">
-        <v>361825.5103273333</v>
+        <v>361825.5103273335</v>
       </c>
       <c r="N6" t="n">
-        <v>407424.7441288048</v>
+        <v>407424.7441288047</v>
       </c>
       <c r="O6" t="n">
-        <v>331102.4913561795</v>
+        <v>331048.8819321039</v>
       </c>
       <c r="P6" t="n">
-        <v>400587.8263791992</v>
+        <v>400534.2169551236</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>195.7447354909197</v>
       </c>
       <c r="F2" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="G2" t="n">
         <v>298.391498516302</v>
@@ -26713,7 +26713,7 @@
         <v>214.2116172669351</v>
       </c>
       <c r="L2" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="M2" t="n">
         <v>272.0383693856387</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="F3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="G3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851817</v>
       </c>
       <c r="H3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="I3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="J3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="K3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="L3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="M3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="N3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="O3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="P3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
     </row>
     <row r="4">
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="F4" t="n">
         <v>185.8624891488176</v>
@@ -26811,7 +26811,7 @@
         <v>185.8624891488176</v>
       </c>
       <c r="J4" t="n">
-        <v>446.422056332395</v>
+        <v>446.4220563323951</v>
       </c>
       <c r="K4" t="n">
         <v>446.4220563323951</v>
@@ -26820,16 +26820,16 @@
         <v>443.2228066923817</v>
       </c>
       <c r="M4" t="n">
-        <v>260.5595671835774</v>
+        <v>260.5595671835773</v>
       </c>
       <c r="N4" t="n">
-        <v>260.5595671835774</v>
+        <v>260.5595671835775</v>
       </c>
       <c r="O4" t="n">
-        <v>279.8095022505778</v>
+        <v>279.8095022505776</v>
       </c>
       <c r="P4" t="n">
-        <v>279.8095022505778</v>
+        <v>279.8095022505776</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>195.7447354909197</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>102.6467630253823</v>
@@ -26938,13 +26938,13 @@
         <v>103.4744728922467</v>
       </c>
       <c r="M2" t="n">
-        <v>56.99904225183923</v>
+        <v>56.99904225183928</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.06602362401358</v>
+        <v>81.06602362401364</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>97.7531835385182</v>
+        <v>97.75318353851816</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.5595671835774</v>
+        <v>260.5595671835775</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>19.24993506700037</v>
+        <v>19.24993506700014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>195.7447354909197</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>102.6467630253823</v>
@@ -27871,7 +27871,7 @@
         <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>256.8197240036773</v>
       </c>
       <c r="J8" t="n">
         <v>111.3013968910535</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>17.12047468788361</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27935,13 +27935,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>155.9730654365651</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
         <v>146.144319312168</v>
@@ -27974,19 +27974,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.44843229210258</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T9" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -28111,28 +28111,28 @@
         <v>195.7447354909197</v>
       </c>
       <c r="J11" t="n">
-        <v>77.9479124233055</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="K11" t="n">
-        <v>90.17359479432332</v>
+        <v>194.3376528593369</v>
       </c>
       <c r="L11" t="n">
-        <v>140.8382322578632</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>89.87749785893962</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>112.2256401328219</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>195.7447354909197</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.7447354909197</v>
+        <v>91.19566549279747</v>
       </c>
       <c r="R11" t="n">
         <v>195.7447354909197</v>
@@ -28178,7 +28178,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7519568304996</v>
@@ -28190,7 +28190,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J12" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,22 +28217,22 @@
         <v>135.1762917966844</v>
       </c>
       <c r="S12" t="n">
-        <v>29.48169695334059</v>
+        <v>5.864868956805111</v>
       </c>
       <c r="T12" t="n">
-        <v>29.13806961038768</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="U12" t="n">
-        <v>195.7447354909197</v>
+        <v>51.36606405569418</v>
       </c>
       <c r="V12" t="n">
-        <v>195.7447354909197</v>
+        <v>54.7864317665846</v>
       </c>
       <c r="W12" t="n">
         <v>195.7447354909197</v>
       </c>
       <c r="X12" t="n">
-        <v>195.7447354909197</v>
+        <v>179.2684336465557</v>
       </c>
       <c r="Y12" t="n">
         <v>195.7447354909197</v>
@@ -28269,28 +28269,28 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J13" t="n">
-        <v>181.9293230056208</v>
+        <v>120.6754001333802</v>
       </c>
       <c r="K13" t="n">
+        <v>67.74612116979598</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33.06823020862728</v>
+      </c>
+      <c r="M13" t="n">
+        <v>31.79011899256295</v>
+      </c>
+      <c r="N13" t="n">
+        <v>17.46341260935888</v>
+      </c>
+      <c r="O13" t="n">
         <v>195.7447354909197</v>
       </c>
-      <c r="L13" t="n">
-        <v>33.06823020862727</v>
-      </c>
-      <c r="M13" t="n">
-        <v>26.18309542946772</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>195.7447354909197</v>
       </c>
-      <c r="O13" t="n">
-        <v>38.35013288227304</v>
-      </c>
-      <c r="P13" t="n">
-        <v>59.2241028338312</v>
-      </c>
       <c r="Q13" t="n">
-        <v>127.7331342448247</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="R13" t="n">
         <v>195.7447354909197</v>
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="C14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="D14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="E14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="F14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="G14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="H14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="I14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="J14" t="n">
         <v>77.9479124233055</v>
       </c>
       <c r="K14" t="n">
-        <v>194.3376528593368</v>
+        <v>8.475163710519197</v>
       </c>
       <c r="L14" t="n">
-        <v>140.8382322578631</v>
+        <v>140.8382322578632</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>32.63601981037914</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.6114812715471</v>
       </c>
       <c r="P14" t="n">
-        <v>91.58067742590615</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.7447354909197</v>
+        <v>91.19566549279747</v>
       </c>
       <c r="R14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="T14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="U14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="V14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="W14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="X14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="Y14" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
     </row>
     <row r="15">
@@ -28403,16 +28403,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>134.6036293761011</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.8065328648607</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>135.1762917966844</v>
       </c>
       <c r="S15" t="n">
-        <v>151.378578619063</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T15" t="n">
-        <v>195.7447354909197</v>
+        <v>29.13806961038771</v>
       </c>
       <c r="U15" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="V15" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="W15" t="n">
-        <v>195.7447354909197</v>
+        <v>80.84209442819395</v>
       </c>
       <c r="X15" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="G16" t="n">
         <v>168.7069388953345</v>
@@ -28506,52 +28506,52 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6754001333802</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="K16" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L16" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M16" t="n">
-        <v>58.04103001418541</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N16" t="n">
-        <v>195.7447354909197</v>
+        <v>148.4794045353683</v>
       </c>
       <c r="O16" t="n">
-        <v>195.7447354909197</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P16" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q16" t="n">
         <v>127.7331342448247</v>
       </c>
       <c r="R16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="S16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="T16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="V16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7447354909197</v>
+        <v>195.7447354909196</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>298.391498516302</v>
       </c>
       <c r="I17" t="n">
-        <v>298.391498516302</v>
+        <v>241.5395387680995</v>
       </c>
       <c r="J17" t="n">
-        <v>77.9479124233055</v>
+        <v>263.8104015721232</v>
       </c>
       <c r="K17" t="n">
-        <v>8.475163710519176</v>
+        <v>194.3376528593368</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>63.47610260494233</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,16 +28600,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>89.83986898017493</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>17.06801862251577</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q17" t="n">
-        <v>277.0581546416151</v>
+        <v>91.19566549279746</v>
       </c>
       <c r="R17" t="n">
-        <v>298.391498516302</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="S17" t="n">
         <v>298.391498516302</v>
@@ -28655,16 +28655,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I18" t="n">
-        <v>25.97648544577837</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,22 +28685,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879895</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>191.7273581056228</v>
+        <v>154.0839747088768</v>
       </c>
       <c r="T18" t="n">
-        <v>215.0005587592053</v>
+        <v>29.13806961038771</v>
       </c>
       <c r="U18" t="n">
         <v>237.2285532045118</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>54.7864317665846</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28749,10 +28749,10 @@
         <v>67.74612116979597</v>
       </c>
       <c r="L19" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M19" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N19" t="n">
         <v>17.46341260935887</v>
@@ -28761,7 +28761,7 @@
         <v>38.35013288227304</v>
       </c>
       <c r="P19" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q19" t="n">
         <v>127.7331342448247</v>
@@ -28822,13 +28822,13 @@
         <v>241.5395387680995</v>
       </c>
       <c r="J20" t="n">
-        <v>263.8104015721232</v>
+        <v>77.9479124233055</v>
       </c>
       <c r="K20" t="n">
-        <v>8.475163710519176</v>
+        <v>194.3376528593369</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>140.8382322578632</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>17.06801862251577</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.7821728605178</v>
+        <v>91.19566549279747</v>
       </c>
       <c r="R20" t="n">
         <v>298.391498516302</v>
@@ -28852,10 +28852,10 @@
         <v>298.391498516302</v>
       </c>
       <c r="T20" t="n">
-        <v>298.391498516302</v>
+        <v>228.3796313290357</v>
       </c>
       <c r="U20" t="n">
-        <v>298.391498516302</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V20" t="n">
         <v>298.391498516302</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28901,7 +28901,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J21" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,13 +28922,13 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R21" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>178.0799979887709</v>
+        <v>136.5057953877896</v>
       </c>
       <c r="T21" t="n">
         <v>215.0005587592053</v>
@@ -28937,7 +28937,7 @@
         <v>237.2285532045118</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>54.7864317665846</v>
       </c>
       <c r="W21" t="n">
         <v>266.7045835770116</v>
@@ -28946,7 +28946,7 @@
         <v>31.45042529065296</v>
       </c>
       <c r="Y21" t="n">
-        <v>37.52179698520797</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K22" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L22" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M22" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N22" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O22" t="n">
-        <v>38.35013288227304</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P22" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q22" t="n">
         <v>127.7331342448247</v>
@@ -29059,10 +29059,10 @@
         <v>298.391498516302</v>
       </c>
       <c r="J23" t="n">
-        <v>146.3292230682057</v>
+        <v>77.9479124233055</v>
       </c>
       <c r="K23" t="n">
-        <v>194.3376528593368</v>
+        <v>8.475163710519197</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,25 +29074,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>77.18551216235555</v>
       </c>
       <c r="P23" t="n">
-        <v>17.06801862251577</v>
+        <v>202.9305077713333</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.19566549279745</v>
+        <v>277.0581546416151</v>
       </c>
       <c r="R23" t="n">
-        <v>195.7447354909196</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="S23" t="n">
-        <v>298.391498516302</v>
+        <v>227.8301292106862</v>
       </c>
       <c r="T23" t="n">
-        <v>298.391498516302</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U23" t="n">
-        <v>298.391498516302</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V23" t="n">
         <v>298.391498516302</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7519568304996</v>
       </c>
       <c r="H24" t="n">
-        <v>69.77684191517456</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I24" t="n">
         <v>107.6165506667984</v>
       </c>
       <c r="J24" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R24" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.7273581056228</v>
       </c>
       <c r="T24" t="n">
-        <v>215.0005587592053</v>
+        <v>29.13806961038776</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2285532045118</v>
+        <v>51.36606405569424</v>
       </c>
       <c r="V24" t="n">
-        <v>54.7864317665846</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>31.45042529065302</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>194.8528974884316</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K25" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L25" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M25" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N25" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O25" t="n">
-        <v>38.35013288227304</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P25" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q25" t="n">
         <v>127.7331342448247</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J27" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>7.807977651879888</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>135.1762917966844</v>
+        <v>111.3384327941676</v>
       </c>
       <c r="S27" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>214.2116172669351</v>
       </c>
       <c r="U27" t="n">
-        <v>17.53188824948472</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="V27" t="n">
-        <v>214.2116172669351</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>214.2116172669351</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>214.2116172669351</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>145.1826502507107</v>
+        <v>214.2116172669351</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29457,28 +29457,28 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K28" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L28" t="n">
-        <v>33.06823020862727</v>
+        <v>191.5562346633917</v>
       </c>
       <c r="M28" t="n">
-        <v>214.2116172669351</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N28" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O28" t="n">
-        <v>67.33408082838864</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P28" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q28" t="n">
         <v>127.7331342448247</v>
       </c>
       <c r="R28" t="n">
-        <v>214.2116172669351</v>
+        <v>203.707115579529</v>
       </c>
       <c r="S28" t="n">
         <v>214.2116172669351</v>
@@ -29612,7 +29612,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J30" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.807977651879888</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>135.1762917966844</v>
@@ -29642,10 +29642,10 @@
         <v>191.7273581056228</v>
       </c>
       <c r="T30" t="n">
+        <v>25.33986590136499</v>
+      </c>
+      <c r="U30" t="n">
         <v>214.2116172669351</v>
-      </c>
-      <c r="U30" t="n">
-        <v>17.53188824948481</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29694,22 +29694,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K31" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L31" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M31" t="n">
-        <v>26.18309542946772</v>
+        <v>77.83858251579495</v>
       </c>
       <c r="N31" t="n">
-        <v>69.11889969568605</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O31" t="n">
         <v>214.2116172669351</v>
       </c>
       <c r="P31" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q31" t="n">
         <v>127.7331342448247</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="C32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="D32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="E32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="F32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="G32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="H32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="I32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="J32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="K32" t="n">
-        <v>215.0393271337995</v>
+        <v>194.9222023836849</v>
       </c>
       <c r="L32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="M32" t="n">
-        <v>194.9222023836842</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="N32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="O32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="P32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="R32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="S32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="T32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="U32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="V32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="W32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="X32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
     </row>
     <row r="33">
@@ -29837,19 +29837,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>101.8559084581795</v>
       </c>
       <c r="G33" t="n">
         <v>148.7519568304996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.8065328648607</v>
       </c>
       <c r="I33" t="n">
-        <v>41.27926107322533</v>
+        <v>107.6165506667984</v>
       </c>
       <c r="J33" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.7273581056228</v>
@@ -29882,19 +29882,19 @@
         <v>215.0005587592053</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.0393271337995</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="Y33" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
     </row>
     <row r="34">
@@ -29922,58 +29922,58 @@
         <v>168.7069388953345</v>
       </c>
       <c r="H34" t="n">
-        <v>165.8792009354125</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="I34" t="n">
-        <v>165.0383354020217</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="J34" t="n">
         <v>120.6754001333802</v>
       </c>
       <c r="K34" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L34" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M34" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N34" t="n">
-        <v>62.37957971959746</v>
+        <v>128.5754444866893</v>
       </c>
       <c r="O34" t="n">
-        <v>215.0393271337995</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P34" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q34" t="n">
         <v>127.7331342448247</v>
       </c>
       <c r="R34" t="n">
-        <v>203.707115579529</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="S34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="T34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="U34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="V34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="W34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="X34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.0393271337995</v>
+        <v>215.0393271337994</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>272.0383693856387</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0383693856387</v>
+        <v>241.5395387680995</v>
       </c>
       <c r="J35" t="n">
         <v>77.9479124233055</v>
@@ -30013,34 +30013,34 @@
         <v>269.0347308940965</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>215.5353102926228</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>186.9227181675816</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>62.22146904975106</v>
       </c>
       <c r="P35" t="n">
-        <v>154.7986783478078</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0383693856387</v>
+        <v>91.19566549279747</v>
       </c>
       <c r="R35" t="n">
         <v>272.0383693856387</v>
       </c>
       <c r="S35" t="n">
-        <v>272.0383693856387</v>
+        <v>227.8301292106862</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0383693856387</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U35" t="n">
-        <v>272.0383693856387</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V35" t="n">
         <v>272.0383693856387</v>
@@ -30065,7 +30065,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30086,7 +30086,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J36" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R36" t="n">
-        <v>135.1762917966844</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T36" t="n">
         <v>215.0005587592053</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2285532045118</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>40.54320169658627</v>
       </c>
       <c r="W36" t="n">
-        <v>196.1963388232114</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30168,22 +30168,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K37" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L37" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M37" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N37" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O37" t="n">
-        <v>38.35013288227304</v>
+        <v>55.3060800298837</v>
       </c>
       <c r="P37" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q37" t="n">
         <v>127.7331342448247</v>
@@ -30201,13 +30201,13 @@
         <v>272.0383693856387</v>
       </c>
       <c r="V37" t="n">
-        <v>272.0383693856387</v>
+        <v>263.7523553575921</v>
       </c>
       <c r="W37" t="n">
         <v>272.0383693856387</v>
       </c>
       <c r="X37" t="n">
-        <v>230.5893885278065</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
         <v>217.1412728141684</v>
@@ -30241,43 +30241,43 @@
         <v>272.0383693856387</v>
       </c>
       <c r="I38" t="n">
+        <v>241.5395387680995</v>
+      </c>
+      <c r="J38" t="n">
         <v>272.0383693856387</v>
       </c>
-      <c r="J38" t="n">
-        <v>77.9479124233055</v>
-      </c>
       <c r="K38" t="n">
-        <v>8.475163710519176</v>
+        <v>269.0347308940967</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.0399705495006</v>
       </c>
       <c r="N38" t="n">
-        <v>143.3198761457467</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0383693856387</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q38" t="n">
         <v>272.0383693856387</v>
       </c>
       <c r="R38" t="n">
-        <v>272.0383693856387</v>
+        <v>195.7447354909197</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0383693856387</v>
+        <v>227.8301292106862</v>
       </c>
       <c r="T38" t="n">
-        <v>272.0383693856387</v>
+        <v>222.5260348585213</v>
       </c>
       <c r="U38" t="n">
-        <v>272.0383693856387</v>
+        <v>250.1516408134256</v>
       </c>
       <c r="V38" t="n">
         <v>272.0383693856387</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7519568304996</v>
@@ -30323,7 +30323,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J39" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R39" t="n">
         <v>135.1762917966844</v>
       </c>
       <c r="S39" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>215.0005587592053</v>
+        <v>144.4923140054053</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2285532045118</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>46.92571423845339</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7069388953345</v>
       </c>
       <c r="H40" t="n">
-        <v>165.8792009354125</v>
+        <v>201.4784882561653</v>
       </c>
       <c r="I40" t="n">
         <v>165.0383354020217</v>
@@ -30405,22 +30405,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K40" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L40" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M40" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N40" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O40" t="n">
-        <v>38.35013288227304</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P40" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q40" t="n">
         <v>127.7331342448247</v>
@@ -30429,7 +30429,7 @@
         <v>203.707115579529</v>
       </c>
       <c r="S40" t="n">
-        <v>271.1447528415243</v>
+        <v>235.5454655207715</v>
       </c>
       <c r="T40" t="n">
         <v>223.7878954052827</v>
@@ -30484,31 +30484,31 @@
         <v>77.9479124233055</v>
       </c>
       <c r="K41" t="n">
+        <v>8.475163710519197</v>
+      </c>
+      <c r="L41" t="n">
+        <v>196.7758530634724</v>
+      </c>
+      <c r="M41" t="n">
+        <v>200.5437051688855</v>
+      </c>
+      <c r="N41" t="n">
+        <v>206.1726532345819</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.5395387680995</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>205.0665880368074</v>
-      </c>
       <c r="P41" t="n">
+        <v>17.06801862251579</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>91.19566549279747</v>
+      </c>
+      <c r="R41" t="n">
+        <v>195.7447354909197</v>
+      </c>
+      <c r="S41" t="n">
         <v>241.5395387680995</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>241.5395387680995</v>
-      </c>
-      <c r="R41" t="n">
-        <v>241.5395387680995</v>
-      </c>
-      <c r="S41" t="n">
-        <v>227.8301292106862</v>
       </c>
       <c r="T41" t="n">
         <v>241.5395387680995</v>
@@ -30539,7 +30539,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -30560,7 +30560,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J42" t="n">
-        <v>53.16980677800106</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R42" t="n">
         <v>135.1762917966844</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.7273581056228</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>202.2049046954174</v>
       </c>
       <c r="U42" t="n">
-        <v>116.5265894232809</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.5395387680995</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.5395387680995</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30639,37 +30639,37 @@
         <v>165.0383354020217</v>
       </c>
       <c r="J43" t="n">
-        <v>120.6754001333802</v>
+        <v>160.5746597372755</v>
       </c>
       <c r="K43" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L43" t="n">
-        <v>46.22474555417547</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M43" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N43" t="n">
-        <v>17.46341260935887</v>
+        <v>17.46341260935888</v>
       </c>
       <c r="O43" t="n">
-        <v>38.35013288227304</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P43" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q43" t="n">
         <v>127.7331342448247</v>
       </c>
       <c r="R43" t="n">
-        <v>203.707115579529</v>
+        <v>241.5395387680995</v>
       </c>
       <c r="S43" t="n">
-        <v>235.5454655207715</v>
+        <v>241.5395387680995</v>
       </c>
       <c r="T43" t="n">
-        <v>223.7878954052827</v>
+        <v>241.5395387680995</v>
       </c>
       <c r="U43" t="n">
         <v>241.5395387680995</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.5395387680995</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30718,28 +30718,28 @@
         <v>241.5395387680995</v>
       </c>
       <c r="J44" t="n">
-        <v>241.5395387680995</v>
+        <v>203.1625857293798</v>
       </c>
       <c r="K44" t="n">
         <v>241.5395387680995</v>
       </c>
       <c r="L44" t="n">
-        <v>27.76555213459993</v>
+        <v>234.7852453596231</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>206.1726532345819</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>241.5395387680995</v>
+        <v>17.06801862251579</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.5395387680995</v>
+        <v>91.19566549279747</v>
       </c>
       <c r="R44" t="n">
         <v>241.5395387680995</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -30797,7 +30797,7 @@
         <v>107.6165506667984</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>53.16980677800107</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,22 +30818,22 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.807977651879888</v>
+        <v>7.807977651879899</v>
       </c>
       <c r="R45" t="n">
         <v>135.1762917966844</v>
       </c>
       <c r="S45" t="n">
-        <v>191.7273581056228</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>215.0005587592053</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>227.0016863858815</v>
+        <v>105.7589322965809</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>241.5395387680995</v>
@@ -30842,7 +30842,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>217.5393840076505</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>120.6754001333802</v>
       </c>
       <c r="K46" t="n">
-        <v>67.74612116979597</v>
+        <v>67.74612116979598</v>
       </c>
       <c r="L46" t="n">
-        <v>33.06823020862727</v>
+        <v>33.06823020862728</v>
       </c>
       <c r="M46" t="n">
-        <v>26.18309542946772</v>
+        <v>26.18309542946773</v>
       </c>
       <c r="N46" t="n">
-        <v>17.46341260935887</v>
+        <v>118.9408120119695</v>
       </c>
       <c r="O46" t="n">
-        <v>38.35013288227304</v>
+        <v>38.35013288227305</v>
       </c>
       <c r="P46" t="n">
-        <v>59.2241028338312</v>
+        <v>59.22410283383121</v>
       </c>
       <c r="Q46" t="n">
         <v>127.7331342448247</v>
@@ -30903,7 +30903,7 @@
         <v>203.707115579529</v>
       </c>
       <c r="S46" t="n">
-        <v>241.5395387680995</v>
+        <v>235.5454655207715</v>
       </c>
       <c r="T46" t="n">
         <v>223.7878954052827</v>
@@ -30918,7 +30918,7 @@
         <v>241.5395387680995</v>
       </c>
       <c r="X46" t="n">
-        <v>241.5395387680995</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H11" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I11" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J11" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K11" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L11" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M11" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N11" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O11" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P11" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R11" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S11" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T11" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H12" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I12" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J12" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K12" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L12" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M12" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N12" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O12" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P12" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R12" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S12" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U12" t="n">
         <v>0.01383299767054503</v>
@@ -31911,46 +31911,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H13" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I13" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J13" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K13" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L13" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M13" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N13" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O13" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P13" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R13" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S13" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H14" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I14" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J14" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K14" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L14" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M14" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N14" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O14" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P14" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R14" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S14" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T14" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H15" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I15" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J15" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K15" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L15" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M15" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N15" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O15" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P15" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q15" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R15" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S15" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U15" t="n">
         <v>0.01383299767054503</v>
@@ -32148,46 +32148,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H16" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I16" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J16" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K16" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L16" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M16" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N16" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O16" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P16" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R16" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S16" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653994</v>
       </c>
       <c r="H17" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I17" t="n">
         <v>15.15026978238683</v>
@@ -32236,37 +32236,37 @@
         <v>33.35348446774798</v>
       </c>
       <c r="K17" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824234</v>
       </c>
       <c r="L17" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564707</v>
       </c>
       <c r="M17" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N17" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487093</v>
       </c>
       <c r="O17" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346937</v>
       </c>
       <c r="P17" t="n">
-        <v>56.51067330379232</v>
+        <v>56.51067330379231</v>
       </c>
       <c r="Q17" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641268</v>
       </c>
       <c r="R17" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S17" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T17" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>0.2102615645922844</v>
       </c>
       <c r="H18" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I18" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918564</v>
       </c>
       <c r="J18" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K18" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L18" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M18" t="n">
-        <v>53.27548502849241</v>
+        <v>53.2754850284924</v>
       </c>
       <c r="N18" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O18" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560373</v>
       </c>
       <c r="P18" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q18" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R18" t="n">
         <v>13.0546610016157</v>
       </c>
       <c r="S18" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820582</v>
       </c>
       <c r="U18" t="n">
         <v>0.01383299767054503</v>
@@ -32388,7 +32388,7 @@
         <v>1.567255959027391</v>
       </c>
       <c r="I19" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957675</v>
       </c>
       <c r="J19" t="n">
         <v>12.46272964555829</v>
@@ -32397,34 +32397,34 @@
         <v>20.48009320692233</v>
       </c>
       <c r="L19" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M19" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728965</v>
       </c>
       <c r="N19" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O19" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P19" t="n">
         <v>21.31980907863025</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R19" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647716</v>
       </c>
       <c r="S19" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082545</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.00961506723329688</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H20" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I20" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J20" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K20" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L20" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M20" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N20" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O20" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P20" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R20" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S20" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T20" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H21" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I21" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J21" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K21" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L21" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M21" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N21" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O21" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P21" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q21" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R21" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S21" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U21" t="n">
         <v>0.01383299767054503</v>
@@ -32622,46 +32622,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H22" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I22" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J22" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K22" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L22" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M22" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N22" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O22" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P22" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R22" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S22" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H23" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I23" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J23" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K23" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L23" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M23" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N23" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O23" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P23" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q23" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R23" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S23" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T23" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H24" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I24" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J24" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K24" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L24" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M24" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N24" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O24" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P24" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q24" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R24" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S24" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U24" t="n">
         <v>0.01383299767054503</v>
@@ -32859,46 +32859,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H25" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I25" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J25" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K25" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L25" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M25" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N25" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O25" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P25" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R25" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S25" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H26" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I26" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J26" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K26" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L26" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M26" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N26" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O26" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P26" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q26" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R26" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S26" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T26" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H27" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I27" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J27" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K27" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L27" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M27" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N27" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O27" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P27" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R27" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S27" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U27" t="n">
         <v>0.01383299767054503</v>
@@ -33096,46 +33096,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H28" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I28" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J28" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K28" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L28" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M28" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N28" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O28" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P28" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q28" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R28" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S28" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H29" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I29" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J29" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K29" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L29" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M29" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N29" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O29" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P29" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q29" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R29" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S29" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T29" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H30" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I30" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J30" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K30" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L30" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M30" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N30" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O30" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P30" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q30" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R30" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S30" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U30" t="n">
         <v>0.01383299767054503</v>
@@ -33333,46 +33333,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H31" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I31" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J31" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K31" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L31" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M31" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N31" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O31" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P31" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q31" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R31" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S31" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H32" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I32" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J32" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K32" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L32" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M32" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N32" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O32" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P32" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q32" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R32" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S32" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T32" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H33" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I33" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J33" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K33" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L33" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M33" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N33" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O33" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P33" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q33" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R33" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S33" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U33" t="n">
         <v>0.01383299767054503</v>
@@ -33570,46 +33570,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H34" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I34" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J34" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K34" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L34" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M34" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N34" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O34" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P34" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R34" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S34" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H35" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I35" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J35" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K35" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L35" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M35" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N35" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O35" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P35" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q35" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R35" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S35" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T35" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H36" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I36" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J36" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K36" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L36" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M36" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N36" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O36" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P36" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q36" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R36" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S36" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U36" t="n">
         <v>0.01383299767054503</v>
@@ -33807,46 +33807,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H37" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I37" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J37" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K37" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L37" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M37" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N37" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O37" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P37" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R37" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S37" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H38" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I38" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J38" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K38" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L38" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M38" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N38" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O38" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P38" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q38" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R38" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S38" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T38" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H39" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I39" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J39" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K39" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L39" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M39" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N39" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O39" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P39" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q39" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R39" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S39" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U39" t="n">
         <v>0.01383299767054503</v>
@@ -34044,46 +34044,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H40" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I40" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J40" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K40" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L40" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M40" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N40" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O40" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P40" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q40" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R40" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S40" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H41" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I41" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J41" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K41" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L41" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M41" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N41" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O41" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P41" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q41" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R41" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S41" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T41" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H42" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I42" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J42" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K42" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L42" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M42" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N42" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O42" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P42" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q42" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R42" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S42" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U42" t="n">
         <v>0.01383299767054503</v>
@@ -34281,46 +34281,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H43" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I43" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J43" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K43" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L43" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M43" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N43" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O43" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P43" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R43" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S43" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3929776222653995</v>
+        <v>0.3929776222653993</v>
       </c>
       <c r="H44" t="n">
-        <v>4.024582074025524</v>
+        <v>4.024582074025522</v>
       </c>
       <c r="I44" t="n">
-        <v>15.15026978238683</v>
+        <v>15.15026978238682</v>
       </c>
       <c r="J44" t="n">
-        <v>33.35348446774798</v>
+        <v>33.35348446774797</v>
       </c>
       <c r="K44" t="n">
-        <v>49.98822721824235</v>
+        <v>49.98822721824233</v>
       </c>
       <c r="L44" t="n">
-        <v>62.01481612564709</v>
+        <v>62.01481612564706</v>
       </c>
       <c r="M44" t="n">
-        <v>69.00343191560938</v>
+        <v>69.00343191560935</v>
       </c>
       <c r="N44" t="n">
-        <v>70.11997958487095</v>
+        <v>70.11997958487092</v>
       </c>
       <c r="O44" t="n">
-        <v>66.21230835346938</v>
+        <v>66.21230835346935</v>
       </c>
       <c r="P44" t="n">
-        <v>56.51067330379232</v>
+        <v>56.5106733037923</v>
       </c>
       <c r="Q44" t="n">
-        <v>42.43716220641269</v>
+        <v>42.43716220641267</v>
       </c>
       <c r="R44" t="n">
-        <v>24.68538056462892</v>
+        <v>24.68538056462891</v>
       </c>
       <c r="S44" t="n">
-        <v>8.954977567372801</v>
+        <v>8.954977567372797</v>
       </c>
       <c r="T44" t="n">
         <v>1.720259541466787</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03143820978123196</v>
+        <v>0.03143820978123194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2102615645922844</v>
+        <v>0.2102615645922843</v>
       </c>
       <c r="H45" t="n">
-        <v>2.030684058036011</v>
+        <v>2.03068405803601</v>
       </c>
       <c r="I45" t="n">
-        <v>7.239268780918566</v>
+        <v>7.239268780918563</v>
       </c>
       <c r="J45" t="n">
-        <v>19.86510685474737</v>
+        <v>19.86510685474736</v>
       </c>
       <c r="K45" t="n">
-        <v>33.95263168243042</v>
+        <v>33.95263168243041</v>
       </c>
       <c r="L45" t="n">
-        <v>45.65350331202212</v>
+        <v>45.6535033120221</v>
       </c>
       <c r="M45" t="n">
-        <v>53.27548502849241</v>
+        <v>53.27548502849239</v>
       </c>
       <c r="N45" t="n">
-        <v>54.68552859104332</v>
+        <v>54.68552859104329</v>
       </c>
       <c r="O45" t="n">
-        <v>50.02657497560374</v>
+        <v>50.02657497560372</v>
       </c>
       <c r="P45" t="n">
-        <v>40.1507368386793</v>
+        <v>40.15073683867929</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.83970428023617</v>
+        <v>26.83970428023616</v>
       </c>
       <c r="R45" t="n">
-        <v>13.0546610016157</v>
+        <v>13.05466100161569</v>
       </c>
       <c r="S45" t="n">
-        <v>3.905516342317211</v>
+        <v>3.905516342317209</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8475016572820584</v>
+        <v>0.8475016572820581</v>
       </c>
       <c r="U45" t="n">
         <v>0.01383299767054503</v>
@@ -34518,46 +34518,46 @@
         <v>0.1762762326104426</v>
       </c>
       <c r="H46" t="n">
-        <v>1.567255959027391</v>
+        <v>1.56725595902739</v>
       </c>
       <c r="I46" t="n">
-        <v>5.301107067957677</v>
+        <v>5.301107067957674</v>
       </c>
       <c r="J46" t="n">
         <v>12.46272964555829</v>
       </c>
       <c r="K46" t="n">
-        <v>20.48009320692233</v>
+        <v>20.48009320692232</v>
       </c>
       <c r="L46" t="n">
-        <v>26.20746825555618</v>
+        <v>26.20746825555617</v>
       </c>
       <c r="M46" t="n">
-        <v>27.63210071728966</v>
+        <v>27.63210071728964</v>
       </c>
       <c r="N46" t="n">
-        <v>26.97507112301439</v>
+        <v>26.97507112301438</v>
       </c>
       <c r="O46" t="n">
-        <v>24.9158442238833</v>
+        <v>24.91584422388329</v>
       </c>
       <c r="P46" t="n">
-        <v>21.31980907863025</v>
+        <v>21.31980907863024</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.76073071431625</v>
+        <v>14.76073071431624</v>
       </c>
       <c r="R46" t="n">
-        <v>7.926020422647719</v>
+        <v>7.926020422647715</v>
       </c>
       <c r="S46" t="n">
-        <v>3.072013981038349</v>
+        <v>3.072013981038348</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7531802666082548</v>
+        <v>0.7531802666082544</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009615067233296882</v>
+        <v>0.009615067233296878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35167,7 +35167,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1299154531910392</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1299154531910392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3.199249640013477</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.069987028295762</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>117.7968230676142</v>
       </c>
       <c r="K11" t="n">
-        <v>81.69843108380415</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="L11" t="n">
-        <v>185.8624891488177</v>
+        <v>45.02425689095449</v>
       </c>
       <c r="M11" t="n">
-        <v>79.26579708169214</v>
+        <v>169.1432949406317</v>
       </c>
       <c r="N11" t="n">
-        <v>73.63684901599575</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="O11" t="n">
-        <v>32.25100787727055</v>
+        <v>32.25100787727052</v>
       </c>
       <c r="P11" t="n">
-        <v>178.6767168684039</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.5490699981222</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L12" t="n">
         <v>116.9217037372171</v>
@@ -35498,13 +35498,13 @@
         <v>181.64884495363</v>
       </c>
       <c r="N12" t="n">
-        <v>185.8624891488177</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="O12" t="n">
         <v>131.2819396447023</v>
       </c>
       <c r="P12" t="n">
-        <v>83.06583387187572</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.2539228722406</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>127.9986143211237</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5.607023563095223</v>
       </c>
       <c r="N13" t="n">
-        <v>178.2813228815608</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>157.3946026086466</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>136.5206326570884</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>68.01160124609491</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>185.8624891488176</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>185.8624891488176</v>
       </c>
       <c r="M14" t="n">
-        <v>79.26579708169214</v>
+        <v>79.26579708169211</v>
       </c>
       <c r="N14" t="n">
-        <v>73.63684901599575</v>
+        <v>106.2728688263749</v>
       </c>
       <c r="O14" t="n">
-        <v>32.25100787727055</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="P14" t="n">
-        <v>74.51265880339038</v>
+        <v>178.6767168684038</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.5490699981222</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L15" t="n">
         <v>116.9217037372171</v>
@@ -35735,13 +35735,13 @@
         <v>181.64884495363</v>
       </c>
       <c r="N15" t="n">
-        <v>185.8624891488176</v>
+        <v>185.8624891488178</v>
       </c>
       <c r="O15" t="n">
         <v>131.2819396447023</v>
       </c>
       <c r="P15" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.56208524020892</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>54.06859427869463</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>56.81785327247297</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>75.06933535753939</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,13 +35811,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>31.85793458471769</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>178.2813228815608</v>
+        <v>131.0159919260094</v>
       </c>
       <c r="O16" t="n">
-        <v>157.3946026086466</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.85195974820249</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="L17" t="n">
-        <v>45.02425689095452</v>
+        <v>108.5003594958968</v>
       </c>
       <c r="M17" t="n">
-        <v>79.26579708169214</v>
+        <v>79.26579708169211</v>
       </c>
       <c r="N17" t="n">
-        <v>73.63684901599575</v>
+        <v>73.63684901599574</v>
       </c>
       <c r="O17" t="n">
-        <v>122.0908768574455</v>
+        <v>32.25100787727054</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.8624891488176</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.6467630253823</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>70.56136930561576</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786342</v>
       </c>
       <c r="L18" t="n">
         <v>116.9217037372171</v>
@@ -35978,7 +35978,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P18" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>185.8624891488176</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>45.02425689095452</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="M20" t="n">
-        <v>79.26579708169214</v>
+        <v>79.26579708169211</v>
       </c>
       <c r="N20" t="n">
-        <v>73.63684901599575</v>
+        <v>73.63684901599572</v>
       </c>
       <c r="O20" t="n">
-        <v>32.25100787727055</v>
+        <v>32.25100787727052</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.58650736772035</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>102.6467630253823</v>
@@ -36148,10 +36148,10 @@
         <v>70.56136930561576</v>
       </c>
       <c r="T20" t="n">
-        <v>75.86546365778071</v>
+        <v>5.853596470514405</v>
       </c>
       <c r="U20" t="n">
-        <v>48.23985770287639</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L21" t="n">
         <v>116.9217037372171</v>
@@ -36215,7 +36215,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P21" t="n">
-        <v>83.06583387187561</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.85195974820249</v>
+        <v>56.85195974820248</v>
       </c>
       <c r="J23" t="n">
-        <v>68.38131064490027</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>45.02425689095449</v>
+      </c>
+      <c r="M23" t="n">
+        <v>79.26579708169211</v>
+      </c>
+      <c r="N23" t="n">
+        <v>73.63684901599572</v>
+      </c>
+      <c r="O23" t="n">
+        <v>109.4365200396261</v>
+      </c>
+      <c r="P23" t="n">
         <v>185.8624891488176</v>
       </c>
-      <c r="L23" t="n">
-        <v>45.02425689095452</v>
-      </c>
-      <c r="M23" t="n">
-        <v>79.26579708169214</v>
-      </c>
-      <c r="N23" t="n">
-        <v>73.63684901599575</v>
-      </c>
-      <c r="O23" t="n">
-        <v>32.25100787727055</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>185.8624891488176</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.56136930561576</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>75.86546365778071</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>48.23985770287639</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.15954971786334</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L24" t="n">
         <v>116.9217037372171</v>
@@ -36452,7 +36452,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P24" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.2637048436296</v>
+        <v>136.2637048436297</v>
       </c>
       <c r="K26" t="n">
         <v>205.7364535564159</v>
@@ -36616,7 +36616,7 @@
         <v>123.0159517741377</v>
       </c>
       <c r="R26" t="n">
-        <v>18.46688177601549</v>
+        <v>18.46688177601544</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L27" t="n">
         <v>116.9217037372171</v>
@@ -36689,7 +36689,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P27" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>69.02896701622444</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>158.4880044547644</v>
       </c>
       <c r="M28" t="n">
-        <v>188.0285218374674</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>28.98394794611558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.50450168740607</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>293.4774143486272</v>
       </c>
       <c r="N29" t="n">
-        <v>287.8484662829309</v>
+        <v>287.8484662829308</v>
       </c>
       <c r="O29" t="n">
         <v>246.4626251442056</v>
@@ -36853,7 +36853,7 @@
         <v>123.0159517741376</v>
       </c>
       <c r="R29" t="n">
-        <v>18.46688177601546</v>
+        <v>18.46688177601545</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L30" t="n">
         <v>116.9217037372171</v>
@@ -36926,7 +36926,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P30" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>51.65548708632722</v>
       </c>
       <c r="N31" t="n">
-        <v>51.65548708632719</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>175.861484384662</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.091414710494</v>
+        <v>137.0914147104939</v>
       </c>
       <c r="K32" t="n">
-        <v>206.5641634232803</v>
+        <v>186.4470386731657</v>
       </c>
       <c r="L32" t="n">
-        <v>260.063584024754</v>
+        <v>260.0635840247539</v>
       </c>
       <c r="M32" t="n">
-        <v>274.1879994653763</v>
+        <v>294.3051242154916</v>
       </c>
       <c r="N32" t="n">
-        <v>288.6761761497952</v>
+        <v>288.6761761497951</v>
       </c>
       <c r="O32" t="n">
-        <v>247.29033501107</v>
+        <v>247.2903350110699</v>
       </c>
       <c r="P32" t="n">
-        <v>197.9713085112837</v>
+        <v>197.9713085112836</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.843661641002</v>
+        <v>123.8436616410019</v>
       </c>
       <c r="R32" t="n">
-        <v>19.29459164287984</v>
+        <v>19.29459164287978</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L33" t="n">
         <v>116.9217037372171</v>
@@ -37163,7 +37163,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P33" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>49.16012619838693</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>50.00099173177767</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>44.9161671102386</v>
+        <v>111.1120318773304</v>
       </c>
       <c r="O34" t="n">
-        <v>176.6891942515264</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>11.33221155427036</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>30.49883061753923</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>260.5595671835774</v>
+        <v>260.5595671835773</v>
       </c>
       <c r="L35" t="n">
-        <v>45.02425689095452</v>
+        <v>260.5595671835773</v>
       </c>
       <c r="M35" t="n">
-        <v>79.26579708169214</v>
+        <v>79.26579708169211</v>
       </c>
       <c r="N35" t="n">
-        <v>73.63684901599575</v>
+        <v>260.5595671835773</v>
       </c>
       <c r="O35" t="n">
-        <v>32.25100787727055</v>
+        <v>94.47247692702159</v>
       </c>
       <c r="P35" t="n">
-        <v>137.730659725292</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>180.8427038928413</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>76.29363389471908</v>
+        <v>76.29363389471906</v>
       </c>
       <c r="S35" t="n">
-        <v>44.2082401749525</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>49.51233452711745</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.88672857221313</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L36" t="n">
         <v>116.9217037372171</v>
@@ -37400,7 +37400,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P36" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>16.95594714761065</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37497,13 +37497,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>26.9293542011888</v>
+        <v>18.64334017314215</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>8.669933119563993</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>30.49883061753923</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>194.0904569623332</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>260.5595671835775</v>
       </c>
       <c r="L38" t="n">
-        <v>45.02425689095452</v>
+        <v>45.02425689095449</v>
       </c>
       <c r="M38" t="n">
-        <v>79.26579708169214</v>
+        <v>245.3057676311927</v>
       </c>
       <c r="N38" t="n">
-        <v>216.9567251617424</v>
+        <v>73.63684901599572</v>
       </c>
       <c r="O38" t="n">
-        <v>32.25100787727055</v>
+        <v>32.25100787727052</v>
       </c>
       <c r="P38" t="n">
-        <v>254.9703507631229</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>180.8427038928413</v>
+        <v>180.8427038928412</v>
       </c>
       <c r="R38" t="n">
-        <v>76.29363389471908</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>44.2082401749525</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>49.51233452711745</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>21.88672857221313</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L39" t="n">
         <v>116.9217037372171</v>
@@ -37637,7 +37637,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P39" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.59928732075279</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37725,7 +37725,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.59928732075279</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37780,34 +37780,34 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>233.0643750575803</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>45.02425689095452</v>
+        <v>241.8001099544269</v>
       </c>
       <c r="M41" t="n">
-        <v>79.26579708169214</v>
+        <v>279.8095022505776</v>
       </c>
       <c r="N41" t="n">
-        <v>73.63684901599575</v>
+        <v>279.8095022505776</v>
       </c>
       <c r="O41" t="n">
-        <v>237.3175959140779</v>
+        <v>273.79054664537</v>
       </c>
       <c r="P41" t="n">
-        <v>224.4715201455837</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.343873275302</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>45.79480327717985</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.7094095574133</v>
       </c>
       <c r="T41" t="n">
-        <v>19.01350390957822</v>
+        <v>19.01350390957825</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L42" t="n">
         <v>116.9217037372171</v>
@@ -37874,7 +37874,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P42" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.92261810313138</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.89925960389525</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>13.1565153455482</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.83242318857045</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.994073247328041</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.75164336281681</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.39826595393106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>163.591626344794</v>
+        <v>125.2146733060743</v>
       </c>
       <c r="K44" t="n">
         <v>233.0643750575803</v>
       </c>
       <c r="L44" t="n">
-        <v>72.78980902555445</v>
+        <v>279.8095022505776</v>
       </c>
       <c r="M44" t="n">
-        <v>79.26579708169214</v>
+        <v>79.26579708169211</v>
       </c>
       <c r="N44" t="n">
-        <v>73.63684901599575</v>
+        <v>279.8095022505776</v>
       </c>
       <c r="O44" t="n">
-        <v>32.25100787727055</v>
+        <v>32.25100787727052</v>
       </c>
       <c r="P44" t="n">
-        <v>224.4715201455837</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3438732753021</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>45.79480327717987</v>
+        <v>45.79480327717984</v>
       </c>
       <c r="S44" t="n">
-        <v>13.7094095574133</v>
+        <v>13.70940955741327</v>
       </c>
       <c r="T44" t="n">
-        <v>19.01350390957825</v>
+        <v>19.01350390957822</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.15954971786343</v>
+        <v>37.15954971786341</v>
       </c>
       <c r="L45" t="n">
         <v>116.9217037372171</v>
@@ -38111,7 +38111,7 @@
         <v>131.2819396447023</v>
       </c>
       <c r="P45" t="n">
-        <v>83.0658338718757</v>
+        <v>83.06583387187567</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>75.86324279542553</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>101.4773994026106</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -38199,7 +38199,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.994073247328043</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.62008335985698</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
